--- a/uk/scotland/COVID-19%2Bdaily%2Bdata%2B-%2Bby%2BNHS%2BBoard%2B-%2B9%2Bjanuary%2B2021.xlsx
+++ b/uk/scotland/COVID-19%2Bdaily%2Bdata%2B-%2Bby%2BNHS%2BBoard%2B-%2B9%2Bjanuary%2B2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u418515\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA9112\A29207215\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u206456\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uG2243\A29207215\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7835" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8104" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -152,9 +152,6 @@
     <t>*** One positive case in NHS Lanarkshire was de-notified - their numbers represent a net gain of zero but one new case was reported on 13 August 2020.***</t>
   </si>
   <si>
-    <t>Table 2 - Daily number of people in hospital with recently confirmed COVID-19 in Scotland</t>
-  </si>
-  <si>
     <t>Table 2 - Daily number of people in ICU with recently confirmed COVID-19 in Scotland</t>
   </si>
   <si>
@@ -241,6 +238,16 @@
   <si>
     <t>Coronavirus (COVID-19): Scotland Board-level Daily Data</t>
   </si>
+  <si>
+    <t>Table 3 - Daily number of people in hospital with recently confirmed COVID-19 in Scotland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Please see note C13 on the notes page</t>
+  </si>
 </sst>
 </file>
 
@@ -251,7 +258,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +417,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -596,12 +608,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -870,6 +883,34 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,10 +924,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 9" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -912,9 +954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -924,7 +966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7000875" cy="26346150"/>
+          <a:ext cx="7223760" cy="28696920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1835,6 +1877,45 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C13. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>esting data reported on 7/2/21 was incomplete due to data processing issues. The missing data from 7/2/21 has been included in the figures reported on 8/2/21.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" baseline="0">
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -3216,7 +3297,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3246,7 +3327,97 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>NHS Lothian could not confirm figures, so figures from 05/12/2020 were used. </a:t>
+            <a:t>NHS Lothian could not confirm figures, so figures from 05/12/2020 were used. 														</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>H.21. On 16/01/2021, NHS Lothian could not confirm figure for hospital patients, so the figure from 15/01/2021 was used. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>H.22 On 17/01/2021, figures for 14/01/2021 and 15/01/2021 for NHS Lothian were updated from 179 and 169 to 190 for both days. The previous day's figure was also updated from 169 to 199 after confirmation from Health Board.</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB">
             <a:effectLst/>
@@ -3270,11 +3441,150 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>H.23 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>On 24/01/2021, the the number of COVID-19 patients in hospital on 23/01/2021 was revised from 2,085 to 2,027 due to a revision from NHS Lanarkshire. The number</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> of COVID-19 patients in hospital in NHS Lanarkshire </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>on 23/01/2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>was revised from 413 to 355.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>H.24 On 03/02/2021, the previous day's figures for COVID-19 patients in hospital and COVID-19 ICU patients were used for NHS Lothian due to data submission issues. On 04/02/2021 the figures for 03/02/2021 were provided and revised from 238 to 232 for COVID-19 patients  in hospital and from 12 to 15 for COVID-19 ICU patients .</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -7327,7 +7637,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="13"/>
     </row>
@@ -7364,7 +7674,7 @@
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>32</v>
@@ -7372,7 +7682,7 @@
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>27</v>
@@ -7380,26 +7690,26 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="92" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -7417,10 +7727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A46"/>
+  <dimension ref="A46:K142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7430,6 +7740,21 @@
   <sheetData>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
+    </row>
+    <row r="142" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" s="139"/>
+      <c r="C142" s="139"/>
+      <c r="D142" s="139"/>
+      <c r="E142" s="139"/>
+      <c r="F142" s="139"/>
+      <c r="G142" s="139"/>
+      <c r="H142" s="139"/>
+      <c r="I142" s="139"/>
+      <c r="J142" s="139"/>
+      <c r="K142" s="139"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7443,10 +7768,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:S334"/>
+  <dimension ref="A1:T373"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B299" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight"/>
@@ -7505,7 +7830,7 @@
     </row>
     <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -16680,7 +17005,7 @@
         <v>21048</v>
       </c>
       <c r="R185" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
@@ -17334,7 +17659,7 @@
         <v>23573</v>
       </c>
       <c r="R198" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
@@ -18902,7 +19227,7 @@
         <v>46715</v>
       </c>
       <c r="R229" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.25">
@@ -23058,400 +23383,2219 @@
       </c>
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A313" s="133"/>
-      <c r="B313" s="122"/>
-      <c r="C313" s="122"/>
-      <c r="D313" s="122"/>
-      <c r="E313" s="122"/>
-      <c r="F313" s="122"/>
-      <c r="G313" s="122"/>
-      <c r="H313" s="122"/>
-      <c r="I313" s="122"/>
-      <c r="J313" s="122"/>
-      <c r="K313" s="122"/>
-      <c r="L313" s="122"/>
-      <c r="M313" s="122"/>
-      <c r="N313" s="122"/>
-      <c r="O313" s="137"/>
-      <c r="P313" s="123"/>
+      <c r="A313" s="133">
+        <v>44206</v>
+      </c>
+      <c r="B313" s="122">
+        <v>10996</v>
+      </c>
+      <c r="C313" s="122">
+        <v>2184</v>
+      </c>
+      <c r="D313" s="122">
+        <v>2731</v>
+      </c>
+      <c r="E313" s="122">
+        <v>7495</v>
+      </c>
+      <c r="F313" s="122">
+        <v>6709</v>
+      </c>
+      <c r="G313" s="122">
+        <v>10057</v>
+      </c>
+      <c r="H313" s="122">
+        <v>47350</v>
+      </c>
+      <c r="I313" s="122">
+        <v>3028</v>
+      </c>
+      <c r="J313" s="122">
+        <v>27740</v>
+      </c>
+      <c r="K313" s="122">
+        <v>21097</v>
+      </c>
+      <c r="L313" s="122">
+        <v>45</v>
+      </c>
+      <c r="M313" s="122">
+        <v>175</v>
+      </c>
+      <c r="N313" s="122">
+        <v>10047</v>
+      </c>
+      <c r="O313" s="137">
+        <v>112</v>
+      </c>
+      <c r="P313" s="123">
+        <v>149766</v>
+      </c>
     </row>
     <row r="314" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A314" s="133"/>
-      <c r="B314" s="122"/>
-      <c r="C314" s="122"/>
-      <c r="D314" s="122"/>
-      <c r="E314" s="122"/>
-      <c r="F314" s="122"/>
-      <c r="G314" s="122"/>
-      <c r="H314" s="122"/>
-      <c r="I314" s="122"/>
-      <c r="J314" s="122"/>
-      <c r="K314" s="122"/>
-      <c r="L314" s="122"/>
-      <c r="M314" s="122"/>
-      <c r="N314" s="122"/>
-      <c r="O314" s="137"/>
-      <c r="P314" s="123"/>
+      <c r="A314" s="133">
+        <v>44207</v>
+      </c>
+      <c r="B314" s="122">
+        <v>11140</v>
+      </c>
+      <c r="C314" s="122">
+        <v>2221</v>
+      </c>
+      <c r="D314" s="122">
+        <v>2784</v>
+      </c>
+      <c r="E314" s="122">
+        <v>7566</v>
+      </c>
+      <c r="F314" s="122">
+        <v>6794</v>
+      </c>
+      <c r="G314" s="122">
+        <v>10178</v>
+      </c>
+      <c r="H314" s="122">
+        <v>47944</v>
+      </c>
+      <c r="I314" s="122">
+        <v>3095</v>
+      </c>
+      <c r="J314" s="122">
+        <v>28047</v>
+      </c>
+      <c r="K314" s="122">
+        <v>21271</v>
+      </c>
+      <c r="L314" s="122">
+        <v>45</v>
+      </c>
+      <c r="M314" s="122">
+        <v>175</v>
+      </c>
+      <c r="N314" s="122">
+        <v>10176</v>
+      </c>
+      <c r="O314" s="137">
+        <v>112</v>
+      </c>
+      <c r="P314" s="123">
+        <v>151548</v>
+      </c>
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A315" s="133"/>
-      <c r="B315" s="122"/>
-      <c r="C315" s="122"/>
-      <c r="D315" s="122"/>
-      <c r="E315" s="122"/>
-      <c r="F315" s="122"/>
-      <c r="G315" s="122"/>
-      <c r="H315" s="122"/>
-      <c r="I315" s="122"/>
-      <c r="J315" s="122"/>
-      <c r="K315" s="122"/>
-      <c r="L315" s="122"/>
-      <c r="M315" s="122"/>
-      <c r="N315" s="122"/>
-      <c r="O315" s="137"/>
-      <c r="P315" s="123"/>
+      <c r="A315" s="133">
+        <v>44208</v>
+      </c>
+      <c r="B315" s="122">
+        <v>11302</v>
+      </c>
+      <c r="C315" s="122">
+        <v>2266</v>
+      </c>
+      <c r="D315" s="122">
+        <v>2855</v>
+      </c>
+      <c r="E315" s="122">
+        <v>7667</v>
+      </c>
+      <c r="F315" s="122">
+        <v>6877</v>
+      </c>
+      <c r="G315" s="122">
+        <v>10314</v>
+      </c>
+      <c r="H315" s="122">
+        <v>48551</v>
+      </c>
+      <c r="I315" s="122">
+        <v>3152</v>
+      </c>
+      <c r="J315" s="122">
+        <v>28327</v>
+      </c>
+      <c r="K315" s="122">
+        <v>21485</v>
+      </c>
+      <c r="L315" s="122">
+        <v>45</v>
+      </c>
+      <c r="M315" s="122">
+        <v>182</v>
+      </c>
+      <c r="N315" s="122">
+        <v>10285</v>
+      </c>
+      <c r="O315" s="137">
+        <v>115</v>
+      </c>
+      <c r="P315" s="123">
+        <v>153423</v>
+      </c>
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A316" s="133"/>
-      <c r="B316" s="122"/>
-      <c r="C316" s="122"/>
-      <c r="D316" s="122"/>
-      <c r="E316" s="122"/>
-      <c r="F316" s="122"/>
-      <c r="G316" s="122"/>
-      <c r="H316" s="122"/>
-      <c r="I316" s="122"/>
-      <c r="J316" s="122"/>
-      <c r="K316" s="122"/>
-      <c r="L316" s="122"/>
-      <c r="M316" s="122"/>
-      <c r="N316" s="122"/>
-      <c r="O316" s="137"/>
-      <c r="P316" s="123"/>
+      <c r="A316" s="133">
+        <v>44209</v>
+      </c>
+      <c r="B316" s="122">
+        <v>11436</v>
+      </c>
+      <c r="C316" s="122">
+        <v>2291</v>
+      </c>
+      <c r="D316" s="122">
+        <v>2910</v>
+      </c>
+      <c r="E316" s="122">
+        <v>7783</v>
+      </c>
+      <c r="F316" s="122">
+        <v>6967</v>
+      </c>
+      <c r="G316" s="122">
+        <v>10480</v>
+      </c>
+      <c r="H316" s="122">
+        <v>49143</v>
+      </c>
+      <c r="I316" s="122">
+        <v>3210</v>
+      </c>
+      <c r="J316" s="122">
+        <v>28685</v>
+      </c>
+      <c r="K316" s="122">
+        <v>21677</v>
+      </c>
+      <c r="L316" s="122">
+        <v>45</v>
+      </c>
+      <c r="M316" s="122">
+        <v>185</v>
+      </c>
+      <c r="N316" s="122">
+        <v>10445</v>
+      </c>
+      <c r="O316" s="137">
+        <v>115</v>
+      </c>
+      <c r="P316" s="123">
+        <v>155372</v>
+      </c>
     </row>
     <row r="317" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A317" s="133"/>
-      <c r="B317" s="122"/>
-      <c r="C317" s="122"/>
-      <c r="D317" s="122"/>
-      <c r="E317" s="122"/>
-      <c r="F317" s="122"/>
-      <c r="G317" s="122"/>
-      <c r="H317" s="122"/>
-      <c r="I317" s="122"/>
-      <c r="J317" s="122"/>
-      <c r="K317" s="122"/>
-      <c r="L317" s="122"/>
-      <c r="M317" s="122"/>
-      <c r="N317" s="122"/>
-      <c r="O317" s="137"/>
-      <c r="P317" s="123"/>
+      <c r="A317" s="133">
+        <v>44210</v>
+      </c>
+      <c r="B317" s="122">
+        <v>11560</v>
+      </c>
+      <c r="C317" s="122">
+        <v>2312</v>
+      </c>
+      <c r="D317" s="122">
+        <v>2976</v>
+      </c>
+      <c r="E317" s="122">
+        <v>7870</v>
+      </c>
+      <c r="F317" s="122">
+        <v>7047</v>
+      </c>
+      <c r="G317" s="122">
+        <v>10685</v>
+      </c>
+      <c r="H317" s="122">
+        <v>49669</v>
+      </c>
+      <c r="I317" s="122">
+        <v>3278</v>
+      </c>
+      <c r="J317" s="122">
+        <v>28927</v>
+      </c>
+      <c r="K317" s="122">
+        <v>21854</v>
+      </c>
+      <c r="L317" s="122">
+        <v>45</v>
+      </c>
+      <c r="M317" s="122">
+        <v>185</v>
+      </c>
+      <c r="N317" s="122">
+        <v>10548</v>
+      </c>
+      <c r="O317" s="137">
+        <v>123</v>
+      </c>
+      <c r="P317" s="123">
+        <v>157079</v>
+      </c>
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A318" s="133"/>
-      <c r="B318" s="122"/>
-      <c r="C318" s="122"/>
-      <c r="D318" s="122"/>
-      <c r="E318" s="122"/>
-      <c r="F318" s="122"/>
-      <c r="G318" s="122"/>
-      <c r="H318" s="122"/>
-      <c r="I318" s="122"/>
-      <c r="J318" s="122"/>
-      <c r="K318" s="122"/>
-      <c r="L318" s="122"/>
-      <c r="M318" s="122"/>
-      <c r="N318" s="122"/>
-      <c r="O318" s="137"/>
-      <c r="P318" s="123"/>
+      <c r="A318" s="133">
+        <v>44211</v>
+      </c>
+      <c r="B318" s="122">
+        <v>11729</v>
+      </c>
+      <c r="C318" s="122">
+        <v>2347</v>
+      </c>
+      <c r="D318" s="122">
+        <v>3044</v>
+      </c>
+      <c r="E318" s="122">
+        <v>8004</v>
+      </c>
+      <c r="F318" s="122">
+        <v>7185</v>
+      </c>
+      <c r="G318" s="122">
+        <v>10847</v>
+      </c>
+      <c r="H318" s="122">
+        <v>50305</v>
+      </c>
+      <c r="I318" s="122">
+        <v>3359</v>
+      </c>
+      <c r="J318" s="122">
+        <v>29266</v>
+      </c>
+      <c r="K318" s="122">
+        <v>22116</v>
+      </c>
+      <c r="L318" s="122">
+        <v>46</v>
+      </c>
+      <c r="M318" s="122">
+        <v>189</v>
+      </c>
+      <c r="N318" s="122">
+        <v>10679</v>
+      </c>
+      <c r="O318" s="137">
+        <v>123</v>
+      </c>
+      <c r="P318" s="123">
+        <v>159239</v>
+      </c>
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A319" s="133"/>
-      <c r="B319" s="122"/>
-      <c r="C319" s="122"/>
-      <c r="D319" s="122"/>
-      <c r="E319" s="122"/>
-      <c r="F319" s="122"/>
-      <c r="G319" s="122"/>
-      <c r="H319" s="122"/>
-      <c r="I319" s="122"/>
-      <c r="J319" s="122"/>
-      <c r="K319" s="122"/>
-      <c r="L319" s="122"/>
-      <c r="M319" s="122"/>
-      <c r="N319" s="122"/>
-      <c r="O319" s="137"/>
-      <c r="P319" s="123"/>
+      <c r="A319" s="133">
+        <v>44212</v>
+      </c>
+      <c r="B319" s="122">
+        <v>11899</v>
+      </c>
+      <c r="C319" s="122">
+        <v>2372</v>
+      </c>
+      <c r="D319" s="122">
+        <v>3113</v>
+      </c>
+      <c r="E319" s="122">
+        <v>8082</v>
+      </c>
+      <c r="F319" s="122">
+        <v>7299</v>
+      </c>
+      <c r="G319" s="122">
+        <v>11010</v>
+      </c>
+      <c r="H319" s="122">
+        <v>50771</v>
+      </c>
+      <c r="I319" s="122">
+        <v>3413</v>
+      </c>
+      <c r="J319" s="122">
+        <v>29561</v>
+      </c>
+      <c r="K319" s="122">
+        <v>22285</v>
+      </c>
+      <c r="L319" s="122">
+        <v>48</v>
+      </c>
+      <c r="M319" s="122">
+        <v>189</v>
+      </c>
+      <c r="N319" s="122">
+        <v>10810</v>
+      </c>
+      <c r="O319" s="137">
+        <v>140</v>
+      </c>
+      <c r="P319" s="123">
+        <v>160992</v>
+      </c>
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A320" s="133"/>
-      <c r="B320" s="122"/>
-      <c r="C320" s="122"/>
-      <c r="D320" s="122"/>
-      <c r="E320" s="122"/>
-      <c r="F320" s="122"/>
-      <c r="G320" s="122"/>
-      <c r="H320" s="122"/>
-      <c r="I320" s="122"/>
-      <c r="J320" s="122"/>
-      <c r="K320" s="122"/>
-      <c r="L320" s="122"/>
-      <c r="M320" s="122"/>
-      <c r="N320" s="122"/>
-      <c r="O320" s="137"/>
-      <c r="P320" s="123"/>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A321" s="133"/>
-      <c r="B321" s="122"/>
-      <c r="C321" s="122"/>
-      <c r="D321" s="122"/>
-      <c r="E321" s="122"/>
-      <c r="F321" s="122"/>
-      <c r="G321" s="122"/>
-      <c r="H321" s="122"/>
-      <c r="I321" s="122"/>
-      <c r="J321" s="122"/>
-      <c r="K321" s="122"/>
-      <c r="L321" s="122"/>
-      <c r="M321" s="122"/>
-      <c r="N321" s="122"/>
-      <c r="O321" s="137"/>
-      <c r="P321" s="123"/>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A322" s="133"/>
-      <c r="B322" s="122"/>
-      <c r="C322" s="122"/>
-      <c r="D322" s="122"/>
-      <c r="E322" s="122"/>
-      <c r="F322" s="122"/>
-      <c r="G322" s="122"/>
-      <c r="H322" s="122"/>
-      <c r="I322" s="122"/>
-      <c r="J322" s="122"/>
-      <c r="K322" s="122"/>
-      <c r="L322" s="122"/>
-      <c r="M322" s="122"/>
-      <c r="N322" s="122"/>
-      <c r="O322" s="137"/>
-      <c r="P322" s="123"/>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A323" s="133"/>
-      <c r="B323" s="122"/>
-      <c r="C323" s="122"/>
-      <c r="D323" s="122"/>
-      <c r="E323" s="122"/>
-      <c r="F323" s="122"/>
-      <c r="G323" s="122"/>
-      <c r="H323" s="122"/>
-      <c r="I323" s="122"/>
-      <c r="J323" s="122"/>
-      <c r="K323" s="122"/>
-      <c r="L323" s="122"/>
-      <c r="M323" s="122"/>
-      <c r="N323" s="122"/>
-      <c r="O323" s="137"/>
-      <c r="P323" s="123"/>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A324" s="133"/>
-      <c r="B324" s="122"/>
-      <c r="C324" s="122"/>
-      <c r="D324" s="122"/>
-      <c r="E324" s="122"/>
-      <c r="F324" s="122"/>
-      <c r="G324" s="122"/>
-      <c r="H324" s="122"/>
-      <c r="I324" s="122"/>
-      <c r="J324" s="122"/>
-      <c r="K324" s="122"/>
-      <c r="L324" s="122"/>
-      <c r="M324" s="122"/>
-      <c r="N324" s="122"/>
-      <c r="O324" s="137"/>
-      <c r="P324" s="123"/>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A325" s="133"/>
-      <c r="B325" s="122"/>
-      <c r="C325" s="122"/>
-      <c r="D325" s="122"/>
-      <c r="E325" s="122"/>
-      <c r="F325" s="122"/>
-      <c r="G325" s="122"/>
-      <c r="H325" s="122"/>
-      <c r="I325" s="122"/>
-      <c r="J325" s="122"/>
-      <c r="K325" s="122"/>
-      <c r="L325" s="122"/>
-      <c r="M325" s="122"/>
-      <c r="N325" s="122"/>
-      <c r="O325" s="137"/>
-      <c r="P325" s="123"/>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A326" s="133"/>
-      <c r="B326" s="122"/>
-      <c r="C326" s="122"/>
-      <c r="D326" s="122"/>
-      <c r="E326" s="122"/>
-      <c r="F326" s="122"/>
-      <c r="G326" s="122"/>
-      <c r="H326" s="122"/>
-      <c r="I326" s="122"/>
-      <c r="J326" s="122"/>
-      <c r="K326" s="122"/>
-      <c r="L326" s="122"/>
-      <c r="M326" s="122"/>
-      <c r="N326" s="122"/>
-      <c r="O326" s="137"/>
-      <c r="P326" s="123"/>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A327" s="133"/>
-      <c r="B327" s="122"/>
-      <c r="C327" s="122"/>
-      <c r="D327" s="122"/>
-      <c r="E327" s="122"/>
-      <c r="F327" s="122"/>
-      <c r="G327" s="122"/>
-      <c r="H327" s="122"/>
-      <c r="I327" s="122"/>
-      <c r="J327" s="122"/>
-      <c r="K327" s="122"/>
-      <c r="L327" s="122"/>
-      <c r="M327" s="122"/>
-      <c r="N327" s="122"/>
-      <c r="O327" s="137"/>
-      <c r="P327" s="123"/>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A328" s="133"/>
-      <c r="B328" s="122"/>
-      <c r="C328" s="122"/>
-      <c r="D328" s="122"/>
-      <c r="E328" s="122"/>
-      <c r="F328" s="122"/>
-      <c r="G328" s="122"/>
-      <c r="H328" s="122"/>
-      <c r="I328" s="122"/>
-      <c r="J328" s="122"/>
-      <c r="K328" s="122"/>
-      <c r="L328" s="122"/>
-      <c r="M328" s="122"/>
-      <c r="N328" s="122"/>
-      <c r="O328" s="137"/>
-      <c r="P328" s="123"/>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A329" s="133"/>
-      <c r="B329" s="122"/>
-      <c r="C329" s="122"/>
-      <c r="D329" s="122"/>
-      <c r="E329" s="122"/>
-      <c r="F329" s="122"/>
-      <c r="G329" s="122"/>
-      <c r="H329" s="122"/>
-      <c r="I329" s="122"/>
-      <c r="J329" s="122"/>
-      <c r="K329" s="122"/>
-      <c r="L329" s="122"/>
-      <c r="M329" s="122"/>
-      <c r="N329" s="122"/>
-      <c r="O329" s="137"/>
-      <c r="P329" s="123"/>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A330" s="133"/>
-      <c r="B330" s="122"/>
-      <c r="C330" s="122"/>
-      <c r="D330" s="122"/>
-      <c r="E330" s="122"/>
-      <c r="F330" s="122"/>
-      <c r="G330" s="122"/>
-      <c r="H330" s="122"/>
-      <c r="I330" s="122"/>
-      <c r="J330" s="122"/>
-      <c r="K330" s="122"/>
-      <c r="L330" s="122"/>
-      <c r="M330" s="122"/>
-      <c r="N330" s="122"/>
-      <c r="O330" s="137"/>
-      <c r="P330" s="123"/>
-    </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A331" s="133"/>
-      <c r="B331" s="122"/>
-      <c r="C331" s="122"/>
-      <c r="D331" s="122"/>
-      <c r="E331" s="122"/>
-      <c r="F331" s="122"/>
-      <c r="G331" s="122"/>
-      <c r="H331" s="122"/>
-      <c r="I331" s="122"/>
-      <c r="J331" s="122"/>
-      <c r="K331" s="122"/>
-      <c r="L331" s="122"/>
-      <c r="M331" s="122"/>
-      <c r="N331" s="122"/>
-      <c r="O331" s="137"/>
-      <c r="P331" s="123"/>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A332" s="133"/>
-      <c r="B332" s="122"/>
-      <c r="C332" s="122"/>
-      <c r="D332" s="122"/>
-      <c r="E332" s="122"/>
-      <c r="F332" s="122"/>
-      <c r="G332" s="122"/>
-      <c r="H332" s="122"/>
-      <c r="I332" s="122"/>
-      <c r="J332" s="122"/>
-      <c r="K332" s="122"/>
-      <c r="L332" s="122"/>
-      <c r="M332" s="122"/>
-      <c r="N332" s="122"/>
-      <c r="O332" s="137"/>
-      <c r="P332" s="123"/>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A333" s="133"/>
-      <c r="B333" s="122"/>
-      <c r="C333" s="122"/>
-      <c r="D333" s="122"/>
-      <c r="E333" s="122"/>
-      <c r="F333" s="122"/>
-      <c r="G333" s="122"/>
-      <c r="H333" s="122"/>
-      <c r="I333" s="122"/>
-      <c r="J333" s="122"/>
-      <c r="K333" s="122"/>
-      <c r="L333" s="122"/>
-      <c r="M333" s="122"/>
-      <c r="N333" s="122"/>
-      <c r="O333" s="137"/>
-      <c r="P333" s="123"/>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A334" s="133"/>
-      <c r="B334" s="122"/>
-      <c r="C334" s="122"/>
-      <c r="D334" s="122"/>
-      <c r="E334" s="122"/>
-      <c r="F334" s="122"/>
-      <c r="G334" s="122"/>
-      <c r="H334" s="122"/>
-      <c r="I334" s="122"/>
-      <c r="J334" s="122"/>
-      <c r="K334" s="122"/>
-      <c r="L334" s="122"/>
-      <c r="M334" s="122"/>
-      <c r="N334" s="122"/>
-      <c r="O334" s="137"/>
-      <c r="P334" s="123"/>
+      <c r="A320" s="133">
+        <v>44213</v>
+      </c>
+      <c r="B320" s="122">
+        <v>12024</v>
+      </c>
+      <c r="C320" s="122">
+        <v>2382</v>
+      </c>
+      <c r="D320" s="122">
+        <v>3161</v>
+      </c>
+      <c r="E320" s="122">
+        <v>8157</v>
+      </c>
+      <c r="F320" s="122">
+        <v>7373</v>
+      </c>
+      <c r="G320" s="122">
+        <v>11141</v>
+      </c>
+      <c r="H320" s="122">
+        <v>51183</v>
+      </c>
+      <c r="I320" s="122">
+        <v>3456</v>
+      </c>
+      <c r="J320" s="122">
+        <v>29787</v>
+      </c>
+      <c r="K320" s="122">
+        <v>22408</v>
+      </c>
+      <c r="L320" s="122">
+        <v>48</v>
+      </c>
+      <c r="M320" s="122">
+        <v>192</v>
+      </c>
+      <c r="N320" s="122">
+        <v>10881</v>
+      </c>
+      <c r="O320" s="137">
+        <v>140</v>
+      </c>
+      <c r="P320" s="123">
+        <v>162333</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A321" s="133">
+        <v>44214</v>
+      </c>
+      <c r="B321" s="122">
+        <v>12140</v>
+      </c>
+      <c r="C321" s="122">
+        <v>2411</v>
+      </c>
+      <c r="D321" s="122">
+        <v>3199</v>
+      </c>
+      <c r="E321" s="122">
+        <v>8218</v>
+      </c>
+      <c r="F321" s="122">
+        <v>7443</v>
+      </c>
+      <c r="G321" s="122">
+        <v>11254</v>
+      </c>
+      <c r="H321" s="122">
+        <v>51634</v>
+      </c>
+      <c r="I321" s="122">
+        <v>3477</v>
+      </c>
+      <c r="J321" s="122">
+        <v>30031</v>
+      </c>
+      <c r="K321" s="122">
+        <v>22586</v>
+      </c>
+      <c r="L321" s="122">
+        <v>49</v>
+      </c>
+      <c r="M321" s="122">
+        <v>195</v>
+      </c>
+      <c r="N321" s="122">
+        <v>10971</v>
+      </c>
+      <c r="O321" s="137">
+        <v>154</v>
+      </c>
+      <c r="P321" s="123">
+        <v>163762</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A322" s="133">
+        <v>44215</v>
+      </c>
+      <c r="B322" s="122">
+        <v>12236</v>
+      </c>
+      <c r="C322" s="122">
+        <v>2425</v>
+      </c>
+      <c r="D322" s="122">
+        <v>3234</v>
+      </c>
+      <c r="E322" s="122">
+        <v>8300</v>
+      </c>
+      <c r="F322" s="122">
+        <v>7504</v>
+      </c>
+      <c r="G322" s="122">
+        <v>11340</v>
+      </c>
+      <c r="H322" s="122">
+        <v>51988</v>
+      </c>
+      <c r="I322" s="122">
+        <v>3499</v>
+      </c>
+      <c r="J322" s="122">
+        <v>30209</v>
+      </c>
+      <c r="K322" s="122">
+        <v>22728</v>
+      </c>
+      <c r="L322" s="122">
+        <v>51</v>
+      </c>
+      <c r="M322" s="122">
+        <v>200</v>
+      </c>
+      <c r="N322" s="122">
+        <v>11054</v>
+      </c>
+      <c r="O322" s="137">
+        <v>159</v>
+      </c>
+      <c r="P322" s="123">
+        <v>164927</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A323" s="133">
+        <v>44216</v>
+      </c>
+      <c r="B323" s="122">
+        <v>12377</v>
+      </c>
+      <c r="C323" s="122">
+        <v>2449</v>
+      </c>
+      <c r="D323" s="122">
+        <v>3277</v>
+      </c>
+      <c r="E323" s="122">
+        <v>8370</v>
+      </c>
+      <c r="F323" s="122">
+        <v>7615</v>
+      </c>
+      <c r="G323" s="122">
+        <v>11492</v>
+      </c>
+      <c r="H323" s="122">
+        <v>52500</v>
+      </c>
+      <c r="I323" s="122">
+        <v>3543</v>
+      </c>
+      <c r="J323" s="122">
+        <v>30464</v>
+      </c>
+      <c r="K323" s="122">
+        <v>22879</v>
+      </c>
+      <c r="L323" s="122">
+        <v>53</v>
+      </c>
+      <c r="M323" s="122">
+        <v>203</v>
+      </c>
+      <c r="N323" s="122">
+        <v>11198</v>
+      </c>
+      <c r="O323" s="137">
+        <v>163</v>
+      </c>
+      <c r="P323" s="123">
+        <v>166583</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A324" s="133">
+        <v>44217</v>
+      </c>
+      <c r="B324" s="122">
+        <v>12493</v>
+      </c>
+      <c r="C324" s="122">
+        <v>2473</v>
+      </c>
+      <c r="D324" s="122">
+        <v>3334</v>
+      </c>
+      <c r="E324" s="122">
+        <v>8436</v>
+      </c>
+      <c r="F324" s="122">
+        <v>7720</v>
+      </c>
+      <c r="G324" s="122">
+        <v>11596</v>
+      </c>
+      <c r="H324" s="122">
+        <v>53010</v>
+      </c>
+      <c r="I324" s="122">
+        <v>3585</v>
+      </c>
+      <c r="J324" s="122">
+        <v>30792</v>
+      </c>
+      <c r="K324" s="122">
+        <v>23061</v>
+      </c>
+      <c r="L324" s="122">
+        <v>53</v>
+      </c>
+      <c r="M324" s="122">
+        <v>205</v>
+      </c>
+      <c r="N324" s="122">
+        <v>11294</v>
+      </c>
+      <c r="O324" s="137">
+        <v>167</v>
+      </c>
+      <c r="P324" s="123">
+        <v>168219</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A325" s="133">
+        <v>44218</v>
+      </c>
+      <c r="B325" s="122">
+        <v>12614</v>
+      </c>
+      <c r="C325" s="122">
+        <v>2504</v>
+      </c>
+      <c r="D325" s="122">
+        <v>3376</v>
+      </c>
+      <c r="E325" s="122">
+        <v>8498</v>
+      </c>
+      <c r="F325" s="122">
+        <v>7793</v>
+      </c>
+      <c r="G325" s="122">
+        <v>11724</v>
+      </c>
+      <c r="H325" s="122">
+        <v>53437</v>
+      </c>
+      <c r="I325" s="122">
+        <v>3631</v>
+      </c>
+      <c r="J325" s="122">
+        <v>31065</v>
+      </c>
+      <c r="K325" s="122">
+        <v>23227</v>
+      </c>
+      <c r="L325" s="122">
+        <v>56</v>
+      </c>
+      <c r="M325" s="122">
+        <v>206</v>
+      </c>
+      <c r="N325" s="122">
+        <v>11400</v>
+      </c>
+      <c r="O325" s="137">
+        <v>168</v>
+      </c>
+      <c r="P325" s="123">
+        <v>169699</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A326" s="133">
+        <v>44219</v>
+      </c>
+      <c r="B326" s="122">
+        <v>12722</v>
+      </c>
+      <c r="C326" s="122">
+        <v>2526</v>
+      </c>
+      <c r="D326" s="122">
+        <v>3408</v>
+      </c>
+      <c r="E326" s="122">
+        <v>8556</v>
+      </c>
+      <c r="F326" s="122">
+        <v>7862</v>
+      </c>
+      <c r="G326" s="122">
+        <v>11824</v>
+      </c>
+      <c r="H326" s="122">
+        <v>53819</v>
+      </c>
+      <c r="I326" s="122">
+        <v>3675</v>
+      </c>
+      <c r="J326" s="122">
+        <v>31321</v>
+      </c>
+      <c r="K326" s="122">
+        <v>23382</v>
+      </c>
+      <c r="L326" s="122">
+        <v>56</v>
+      </c>
+      <c r="M326" s="122">
+        <v>208</v>
+      </c>
+      <c r="N326" s="122">
+        <v>11479</v>
+      </c>
+      <c r="O326" s="122">
+        <v>168</v>
+      </c>
+      <c r="P326" s="123">
+        <v>171006</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A327" s="133">
+        <v>44220</v>
+      </c>
+      <c r="B327" s="122">
+        <v>12808</v>
+      </c>
+      <c r="C327" s="122">
+        <v>2547</v>
+      </c>
+      <c r="D327" s="122">
+        <v>3448</v>
+      </c>
+      <c r="E327" s="122">
+        <v>8600</v>
+      </c>
+      <c r="F327" s="122">
+        <v>7934</v>
+      </c>
+      <c r="G327" s="122">
+        <v>11950</v>
+      </c>
+      <c r="H327" s="122">
+        <v>54182</v>
+      </c>
+      <c r="I327" s="122">
+        <v>3709</v>
+      </c>
+      <c r="J327" s="122">
+        <v>31549</v>
+      </c>
+      <c r="K327" s="122">
+        <v>23493</v>
+      </c>
+      <c r="L327" s="122">
+        <v>56</v>
+      </c>
+      <c r="M327" s="122">
+        <v>208</v>
+      </c>
+      <c r="N327" s="122">
+        <v>11548</v>
+      </c>
+      <c r="O327" s="122">
+        <v>169</v>
+      </c>
+      <c r="P327" s="123">
+        <v>172201</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A328" s="133">
+        <v>44221</v>
+      </c>
+      <c r="B328" s="122">
+        <v>12895</v>
+      </c>
+      <c r="C328" s="122">
+        <v>2554</v>
+      </c>
+      <c r="D328" s="122">
+        <v>3473</v>
+      </c>
+      <c r="E328" s="122">
+        <v>8627</v>
+      </c>
+      <c r="F328" s="122">
+        <v>7986</v>
+      </c>
+      <c r="G328" s="122">
+        <v>11996</v>
+      </c>
+      <c r="H328" s="122">
+        <v>54406</v>
+      </c>
+      <c r="I328" s="122">
+        <v>3723</v>
+      </c>
+      <c r="J328" s="122">
+        <v>31687</v>
+      </c>
+      <c r="K328" s="122">
+        <v>23576</v>
+      </c>
+      <c r="L328" s="122">
+        <v>57</v>
+      </c>
+      <c r="M328" s="122">
+        <v>209</v>
+      </c>
+      <c r="N328" s="122">
+        <v>11595</v>
+      </c>
+      <c r="O328" s="122">
+        <v>169</v>
+      </c>
+      <c r="P328" s="123">
+        <v>172953</v>
+      </c>
+      <c r="Q328" s="24"/>
+      <c r="R328" s="24"/>
+      <c r="T328" s="35"/>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A329" s="133">
+        <v>44222</v>
+      </c>
+      <c r="B329" s="122">
+        <v>12984</v>
+      </c>
+      <c r="C329" s="122">
+        <v>2566</v>
+      </c>
+      <c r="D329" s="122">
+        <v>3497</v>
+      </c>
+      <c r="E329" s="122">
+        <v>8677</v>
+      </c>
+      <c r="F329" s="122">
+        <v>8045</v>
+      </c>
+      <c r="G329" s="122">
+        <v>12074</v>
+      </c>
+      <c r="H329" s="122">
+        <v>54753</v>
+      </c>
+      <c r="I329" s="122">
+        <v>3756</v>
+      </c>
+      <c r="J329" s="122">
+        <v>31883</v>
+      </c>
+      <c r="K329" s="122">
+        <v>23672</v>
+      </c>
+      <c r="L329" s="122">
+        <v>60</v>
+      </c>
+      <c r="M329" s="122">
+        <v>210</v>
+      </c>
+      <c r="N329" s="122">
+        <v>11655</v>
+      </c>
+      <c r="O329" s="122">
+        <v>170</v>
+      </c>
+      <c r="P329" s="123">
+        <v>174002</v>
+      </c>
+      <c r="Q329" s="24"/>
+      <c r="R329" s="24"/>
+      <c r="T329" s="35"/>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A330" s="133">
+        <v>44223</v>
+      </c>
+      <c r="B330" s="122">
+        <v>13094</v>
+      </c>
+      <c r="C330" s="122">
+        <v>2586</v>
+      </c>
+      <c r="D330" s="122">
+        <v>3543</v>
+      </c>
+      <c r="E330" s="122">
+        <v>8730</v>
+      </c>
+      <c r="F330" s="122">
+        <v>8129</v>
+      </c>
+      <c r="G330" s="122">
+        <v>12167</v>
+      </c>
+      <c r="H330" s="122">
+        <v>55147</v>
+      </c>
+      <c r="I330" s="122">
+        <v>3798</v>
+      </c>
+      <c r="J330" s="122">
+        <v>32128</v>
+      </c>
+      <c r="K330" s="122">
+        <v>23807</v>
+      </c>
+      <c r="L330" s="122">
+        <v>60</v>
+      </c>
+      <c r="M330" s="122">
+        <v>210</v>
+      </c>
+      <c r="N330" s="122">
+        <v>11762</v>
+      </c>
+      <c r="O330" s="122">
+        <v>171</v>
+      </c>
+      <c r="P330" s="123">
+        <v>175332</v>
+      </c>
+      <c r="Q330" s="24"/>
+      <c r="R330" s="24"/>
+      <c r="T330" s="35"/>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A331" s="133">
+        <v>44224</v>
+      </c>
+      <c r="B331" s="122">
+        <v>13162</v>
+      </c>
+      <c r="C331" s="122">
+        <v>2597</v>
+      </c>
+      <c r="D331" s="122">
+        <v>3572</v>
+      </c>
+      <c r="E331" s="122">
+        <v>8786</v>
+      </c>
+      <c r="F331" s="122">
+        <v>8218</v>
+      </c>
+      <c r="G331" s="122">
+        <v>12261</v>
+      </c>
+      <c r="H331" s="122">
+        <v>55499</v>
+      </c>
+      <c r="I331" s="122">
+        <v>3843</v>
+      </c>
+      <c r="J331" s="122">
+        <v>32361</v>
+      </c>
+      <c r="K331" s="122">
+        <v>23957</v>
+      </c>
+      <c r="L331" s="122">
+        <v>61</v>
+      </c>
+      <c r="M331" s="122">
+        <v>210</v>
+      </c>
+      <c r="N331" s="122">
+        <v>11826</v>
+      </c>
+      <c r="O331" s="122">
+        <v>180</v>
+      </c>
+      <c r="P331" s="123">
+        <v>176533</v>
+      </c>
+      <c r="Q331" s="24"/>
+      <c r="R331" s="24"/>
+      <c r="T331" s="35"/>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A332" s="147">
+        <v>44225</v>
+      </c>
+      <c r="B332" s="140">
+        <v>13270</v>
+      </c>
+      <c r="C332" s="140">
+        <v>2614</v>
+      </c>
+      <c r="D332" s="140">
+        <v>3599</v>
+      </c>
+      <c r="E332" s="140">
+        <v>8838</v>
+      </c>
+      <c r="F332" s="140">
+        <v>8295</v>
+      </c>
+      <c r="G332" s="140">
+        <v>12325</v>
+      </c>
+      <c r="H332" s="140">
+        <v>55836</v>
+      </c>
+      <c r="I332" s="140">
+        <v>3886</v>
+      </c>
+      <c r="J332" s="140">
+        <v>32568</v>
+      </c>
+      <c r="K332" s="140">
+        <v>24104</v>
+      </c>
+      <c r="L332" s="140">
+        <v>61</v>
+      </c>
+      <c r="M332" s="140">
+        <v>210</v>
+      </c>
+      <c r="N332" s="140">
+        <v>11896</v>
+      </c>
+      <c r="O332" s="140">
+        <v>186</v>
+      </c>
+      <c r="P332" s="123">
+        <v>177688</v>
+      </c>
+      <c r="Q332" s="24"/>
+      <c r="R332" s="24"/>
+      <c r="T332" s="35"/>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A333" s="147">
+        <v>44226</v>
+      </c>
+      <c r="B333" s="140">
+        <v>13344</v>
+      </c>
+      <c r="C333" s="140">
+        <v>2626</v>
+      </c>
+      <c r="D333" s="140">
+        <v>3631</v>
+      </c>
+      <c r="E333" s="140">
+        <v>8870</v>
+      </c>
+      <c r="F333" s="140">
+        <v>8352</v>
+      </c>
+      <c r="G333" s="140">
+        <v>12388</v>
+      </c>
+      <c r="H333" s="140">
+        <v>56167</v>
+      </c>
+      <c r="I333" s="140">
+        <v>3926</v>
+      </c>
+      <c r="J333" s="140">
+        <v>32742</v>
+      </c>
+      <c r="K333" s="140">
+        <v>24223</v>
+      </c>
+      <c r="L333" s="140">
+        <v>62</v>
+      </c>
+      <c r="M333" s="140">
+        <v>210</v>
+      </c>
+      <c r="N333" s="140">
+        <v>11955</v>
+      </c>
+      <c r="O333" s="140">
+        <v>186</v>
+      </c>
+      <c r="P333" s="123">
+        <v>178682</v>
+      </c>
+      <c r="Q333" s="24"/>
+      <c r="R333" s="24"/>
+      <c r="T333" s="35"/>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A334" s="147">
+        <v>44227</v>
+      </c>
+      <c r="B334" s="140">
+        <v>13457</v>
+      </c>
+      <c r="C334" s="140">
+        <v>2638</v>
+      </c>
+      <c r="D334" s="140">
+        <v>3660</v>
+      </c>
+      <c r="E334" s="140">
+        <v>8910</v>
+      </c>
+      <c r="F334" s="140">
+        <v>8406</v>
+      </c>
+      <c r="G334" s="140">
+        <v>12426</v>
+      </c>
+      <c r="H334" s="140">
+        <v>56458</v>
+      </c>
+      <c r="I334" s="140">
+        <v>3960</v>
+      </c>
+      <c r="J334" s="140">
+        <v>32918</v>
+      </c>
+      <c r="K334" s="140">
+        <v>24344</v>
+      </c>
+      <c r="L334" s="140">
+        <v>62</v>
+      </c>
+      <c r="M334" s="140">
+        <v>210</v>
+      </c>
+      <c r="N334" s="140">
+        <v>12048</v>
+      </c>
+      <c r="O334" s="140">
+        <v>188</v>
+      </c>
+      <c r="P334" s="123">
+        <v>179685</v>
+      </c>
+      <c r="Q334" s="24"/>
+      <c r="R334" s="24"/>
+      <c r="T334" s="35"/>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A335" s="147">
+        <v>44228</v>
+      </c>
+      <c r="B335" s="140">
+        <v>13515</v>
+      </c>
+      <c r="C335" s="140">
+        <v>2649</v>
+      </c>
+      <c r="D335" s="140">
+        <v>3679</v>
+      </c>
+      <c r="E335" s="140">
+        <v>8950</v>
+      </c>
+      <c r="F335" s="140">
+        <v>8481</v>
+      </c>
+      <c r="G335" s="140">
+        <v>12471</v>
+      </c>
+      <c r="H335" s="140">
+        <v>56702</v>
+      </c>
+      <c r="I335" s="140">
+        <v>3976</v>
+      </c>
+      <c r="J335" s="140">
+        <v>33085</v>
+      </c>
+      <c r="K335" s="140">
+        <v>24455</v>
+      </c>
+      <c r="L335" s="140">
+        <v>62</v>
+      </c>
+      <c r="M335" s="140">
+        <v>210</v>
+      </c>
+      <c r="N335" s="140">
+        <v>12109</v>
+      </c>
+      <c r="O335" s="140">
+        <v>189</v>
+      </c>
+      <c r="P335" s="123">
+        <v>180533</v>
+      </c>
+      <c r="Q335" s="24"/>
+      <c r="R335" s="148"/>
+      <c r="T335" s="35"/>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A336" s="147">
+        <v>44229</v>
+      </c>
+      <c r="B336" s="140">
+        <v>13579</v>
+      </c>
+      <c r="C336" s="140">
+        <v>2655</v>
+      </c>
+      <c r="D336" s="140">
+        <v>3695</v>
+      </c>
+      <c r="E336" s="140">
+        <v>8989</v>
+      </c>
+      <c r="F336" s="140">
+        <v>8552</v>
+      </c>
+      <c r="G336" s="140">
+        <v>12516</v>
+      </c>
+      <c r="H336" s="140">
+        <v>56963</v>
+      </c>
+      <c r="I336" s="140">
+        <v>3987</v>
+      </c>
+      <c r="J336" s="140">
+        <v>33223</v>
+      </c>
+      <c r="K336" s="140">
+        <v>24518</v>
+      </c>
+      <c r="L336" s="140">
+        <v>62</v>
+      </c>
+      <c r="M336" s="140">
+        <v>210</v>
+      </c>
+      <c r="N336" s="140">
+        <v>12146</v>
+      </c>
+      <c r="O336" s="140">
+        <v>196</v>
+      </c>
+      <c r="P336" s="123">
+        <v>181291</v>
+      </c>
+      <c r="Q336" s="24"/>
+      <c r="R336" s="24"/>
+      <c r="T336" s="35"/>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A337" s="147">
+        <v>44230</v>
+      </c>
+      <c r="B337" s="140">
+        <v>13661</v>
+      </c>
+      <c r="C337" s="140">
+        <v>2666</v>
+      </c>
+      <c r="D337" s="140">
+        <v>3708</v>
+      </c>
+      <c r="E337" s="140">
+        <v>9031</v>
+      </c>
+      <c r="F337" s="140">
+        <v>8653</v>
+      </c>
+      <c r="G337" s="140">
+        <v>12569</v>
+      </c>
+      <c r="H337" s="140">
+        <v>57269</v>
+      </c>
+      <c r="I337" s="140">
+        <v>4029</v>
+      </c>
+      <c r="J337" s="140">
+        <v>33391</v>
+      </c>
+      <c r="K337" s="140">
+        <v>24600</v>
+      </c>
+      <c r="L337" s="140">
+        <v>62</v>
+      </c>
+      <c r="M337" s="140">
+        <v>210</v>
+      </c>
+      <c r="N337" s="140">
+        <v>12223</v>
+      </c>
+      <c r="O337" s="140">
+        <v>197</v>
+      </c>
+      <c r="P337" s="123">
+        <v>182269</v>
+      </c>
+      <c r="Q337" s="24"/>
+      <c r="R337" s="24"/>
+      <c r="T337" s="35"/>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A338" s="147">
+        <v>44231</v>
+      </c>
+      <c r="B338" s="140">
+        <v>13721</v>
+      </c>
+      <c r="C338" s="140">
+        <v>2685</v>
+      </c>
+      <c r="D338" s="140">
+        <v>3725</v>
+      </c>
+      <c r="E338" s="140">
+        <v>9077</v>
+      </c>
+      <c r="F338" s="140">
+        <v>8785</v>
+      </c>
+      <c r="G338" s="140">
+        <v>12646</v>
+      </c>
+      <c r="H338" s="140">
+        <v>57608</v>
+      </c>
+      <c r="I338" s="140">
+        <v>4067</v>
+      </c>
+      <c r="J338" s="140">
+        <v>33581</v>
+      </c>
+      <c r="K338" s="140">
+        <v>24759</v>
+      </c>
+      <c r="L338" s="140">
+        <v>62</v>
+      </c>
+      <c r="M338" s="140">
+        <v>210</v>
+      </c>
+      <c r="N338" s="140">
+        <v>12290</v>
+      </c>
+      <c r="O338" s="140">
+        <v>202</v>
+      </c>
+      <c r="P338" s="123">
+        <v>183418</v>
+      </c>
+      <c r="Q338" s="24"/>
+      <c r="R338" s="24"/>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A339" s="147">
+        <v>44232</v>
+      </c>
+      <c r="B339" s="140">
+        <v>13797</v>
+      </c>
+      <c r="C339" s="140">
+        <v>2690</v>
+      </c>
+      <c r="D339" s="140">
+        <v>3750</v>
+      </c>
+      <c r="E339" s="140">
+        <v>9101</v>
+      </c>
+      <c r="F339" s="140">
+        <v>8877</v>
+      </c>
+      <c r="G339" s="140">
+        <v>12701</v>
+      </c>
+      <c r="H339" s="140">
+        <v>57872</v>
+      </c>
+      <c r="I339" s="140">
+        <v>4114</v>
+      </c>
+      <c r="J339" s="140">
+        <v>33715</v>
+      </c>
+      <c r="K339" s="140">
+        <v>24862</v>
+      </c>
+      <c r="L339" s="140">
+        <v>62</v>
+      </c>
+      <c r="M339" s="140">
+        <v>210</v>
+      </c>
+      <c r="N339" s="140">
+        <v>12353</v>
+      </c>
+      <c r="O339" s="140">
+        <v>209</v>
+      </c>
+      <c r="P339" s="123">
+        <v>184313</v>
+      </c>
+      <c r="Q339" s="24"/>
+      <c r="R339" s="24"/>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A340" s="147">
+        <v>44233</v>
+      </c>
+      <c r="B340" s="140">
+        <v>13866</v>
+      </c>
+      <c r="C340" s="140">
+        <v>2699</v>
+      </c>
+      <c r="D340" s="140">
+        <v>3768</v>
+      </c>
+      <c r="E340" s="140">
+        <v>9131</v>
+      </c>
+      <c r="F340" s="140">
+        <v>8974</v>
+      </c>
+      <c r="G340" s="140">
+        <v>12734</v>
+      </c>
+      <c r="H340" s="140">
+        <v>58125</v>
+      </c>
+      <c r="I340" s="140">
+        <v>4148</v>
+      </c>
+      <c r="J340" s="140">
+        <v>33873</v>
+      </c>
+      <c r="K340" s="140">
+        <v>24995</v>
+      </c>
+      <c r="L340" s="140">
+        <v>63</v>
+      </c>
+      <c r="M340" s="140">
+        <v>210</v>
+      </c>
+      <c r="N340" s="140">
+        <v>12410</v>
+      </c>
+      <c r="O340" s="140">
+        <v>212</v>
+      </c>
+      <c r="P340" s="123">
+        <v>185208</v>
+      </c>
+      <c r="Q340" s="24"/>
+      <c r="R340" s="24"/>
+      <c r="T340" s="35"/>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A341" s="147">
+        <v>44234</v>
+      </c>
+      <c r="B341" s="140">
+        <v>13913</v>
+      </c>
+      <c r="C341" s="140">
+        <v>2705</v>
+      </c>
+      <c r="D341" s="140">
+        <v>3779</v>
+      </c>
+      <c r="E341" s="140">
+        <v>9156</v>
+      </c>
+      <c r="F341" s="140">
+        <v>9034</v>
+      </c>
+      <c r="G341" s="140">
+        <v>12778</v>
+      </c>
+      <c r="H341" s="140">
+        <v>58250</v>
+      </c>
+      <c r="I341" s="140">
+        <v>4163</v>
+      </c>
+      <c r="J341" s="140">
+        <v>34002</v>
+      </c>
+      <c r="K341" s="140">
+        <v>25067</v>
+      </c>
+      <c r="L341" s="140">
+        <v>63</v>
+      </c>
+      <c r="M341" s="140">
+        <v>211</v>
+      </c>
+      <c r="N341" s="140">
+        <v>12457</v>
+      </c>
+      <c r="O341" s="140">
+        <v>214</v>
+      </c>
+      <c r="P341" s="123">
+        <v>185792</v>
+      </c>
+      <c r="Q341" s="24"/>
+      <c r="R341" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S341" s="24"/>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A342" s="147">
+        <v>44235</v>
+      </c>
+      <c r="B342" s="140">
+        <v>13996</v>
+      </c>
+      <c r="C342" s="140">
+        <v>2709</v>
+      </c>
+      <c r="D342" s="140">
+        <v>3806</v>
+      </c>
+      <c r="E342" s="140">
+        <v>9178</v>
+      </c>
+      <c r="F342" s="140">
+        <v>9097</v>
+      </c>
+      <c r="G342" s="140">
+        <v>12829</v>
+      </c>
+      <c r="H342" s="140">
+        <v>58533</v>
+      </c>
+      <c r="I342" s="140">
+        <v>4214</v>
+      </c>
+      <c r="J342" s="140">
+        <v>34171</v>
+      </c>
+      <c r="K342" s="140">
+        <v>25188</v>
+      </c>
+      <c r="L342" s="140">
+        <v>63</v>
+      </c>
+      <c r="M342" s="140">
+        <v>211</v>
+      </c>
+      <c r="N342" s="140">
+        <v>12506</v>
+      </c>
+      <c r="O342" s="140">
+        <v>219</v>
+      </c>
+      <c r="P342" s="123">
+        <v>186720</v>
+      </c>
+      <c r="Q342" s="24"/>
+      <c r="R342" s="148"/>
+      <c r="S342" s="24"/>
+      <c r="T342" s="35"/>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A343" s="147">
+        <v>44236</v>
+      </c>
+      <c r="B343" s="140">
+        <v>14060</v>
+      </c>
+      <c r="C343" s="140">
+        <v>2715</v>
+      </c>
+      <c r="D343" s="140">
+        <v>3825</v>
+      </c>
+      <c r="E343" s="140">
+        <v>9202</v>
+      </c>
+      <c r="F343" s="140">
+        <v>9190</v>
+      </c>
+      <c r="G343" s="140">
+        <v>12863</v>
+      </c>
+      <c r="H343" s="140">
+        <v>58810</v>
+      </c>
+      <c r="I343" s="140">
+        <v>4246</v>
+      </c>
+      <c r="J343" s="140">
+        <v>34330</v>
+      </c>
+      <c r="K343" s="140">
+        <v>25278</v>
+      </c>
+      <c r="L343" s="140">
+        <v>63</v>
+      </c>
+      <c r="M343" s="140">
+        <v>212</v>
+      </c>
+      <c r="N343" s="140">
+        <v>12526</v>
+      </c>
+      <c r="O343" s="140">
+        <v>222</v>
+      </c>
+      <c r="P343" s="123">
+        <v>187542</v>
+      </c>
+      <c r="Q343" s="24"/>
+      <c r="R343" s="24"/>
+      <c r="S343" s="24"/>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A344" s="147"/>
+      <c r="B344" s="140"/>
+      <c r="C344" s="140"/>
+      <c r="D344" s="140"/>
+      <c r="E344" s="140"/>
+      <c r="F344" s="140"/>
+      <c r="G344" s="140"/>
+      <c r="H344" s="140"/>
+      <c r="I344" s="140"/>
+      <c r="J344" s="140"/>
+      <c r="K344" s="140"/>
+      <c r="L344" s="140"/>
+      <c r="M344" s="140"/>
+      <c r="N344" s="140"/>
+      <c r="O344" s="140"/>
+      <c r="P344" s="140"/>
+      <c r="Q344" s="24"/>
+      <c r="R344" s="24"/>
+      <c r="S344" s="24"/>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A345" s="147"/>
+      <c r="B345" s="140"/>
+      <c r="C345" s="140"/>
+      <c r="D345" s="140"/>
+      <c r="E345" s="140"/>
+      <c r="F345" s="140"/>
+      <c r="G345" s="140"/>
+      <c r="H345" s="140"/>
+      <c r="I345" s="140"/>
+      <c r="J345" s="140"/>
+      <c r="K345" s="140"/>
+      <c r="L345" s="140"/>
+      <c r="M345" s="140"/>
+      <c r="N345" s="140"/>
+      <c r="O345" s="140"/>
+      <c r="P345" s="140"/>
+      <c r="Q345" s="24"/>
+      <c r="R345" s="24"/>
+      <c r="S345" s="24"/>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A346" s="147"/>
+      <c r="B346" s="140"/>
+      <c r="C346" s="140"/>
+      <c r="D346" s="140"/>
+      <c r="E346" s="140"/>
+      <c r="F346" s="140"/>
+      <c r="G346" s="140"/>
+      <c r="H346" s="140"/>
+      <c r="I346" s="140"/>
+      <c r="J346" s="140"/>
+      <c r="K346" s="140"/>
+      <c r="L346" s="140"/>
+      <c r="M346" s="140"/>
+      <c r="N346" s="140"/>
+      <c r="O346" s="140"/>
+      <c r="P346" s="140"/>
+      <c r="Q346" s="24"/>
+      <c r="R346" s="24"/>
+      <c r="S346" s="24"/>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A347" s="147"/>
+      <c r="B347" s="140"/>
+      <c r="C347" s="140"/>
+      <c r="D347" s="140"/>
+      <c r="E347" s="140"/>
+      <c r="F347" s="140"/>
+      <c r="G347" s="140"/>
+      <c r="H347" s="140"/>
+      <c r="I347" s="140"/>
+      <c r="J347" s="140"/>
+      <c r="K347" s="140"/>
+      <c r="L347" s="140"/>
+      <c r="M347" s="140"/>
+      <c r="N347" s="140"/>
+      <c r="O347" s="140"/>
+      <c r="P347" s="140"/>
+      <c r="Q347" s="24"/>
+      <c r="R347" s="24"/>
+      <c r="S347" s="24"/>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A348" s="147"/>
+      <c r="B348" s="140"/>
+      <c r="C348" s="140"/>
+      <c r="D348" s="140"/>
+      <c r="E348" s="140"/>
+      <c r="F348" s="140"/>
+      <c r="G348" s="140"/>
+      <c r="H348" s="140"/>
+      <c r="I348" s="140"/>
+      <c r="J348" s="140"/>
+      <c r="K348" s="140"/>
+      <c r="L348" s="140"/>
+      <c r="M348" s="140"/>
+      <c r="N348" s="140"/>
+      <c r="O348" s="140"/>
+      <c r="P348" s="140"/>
+      <c r="Q348" s="24"/>
+      <c r="R348" s="24"/>
+      <c r="S348" s="24"/>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A349" s="147"/>
+      <c r="B349" s="140"/>
+      <c r="C349" s="140"/>
+      <c r="D349" s="140"/>
+      <c r="E349" s="140"/>
+      <c r="F349" s="140"/>
+      <c r="G349" s="140"/>
+      <c r="H349" s="140"/>
+      <c r="I349" s="140"/>
+      <c r="J349" s="140"/>
+      <c r="K349" s="140"/>
+      <c r="L349" s="140"/>
+      <c r="M349" s="140"/>
+      <c r="N349" s="140"/>
+      <c r="O349" s="140"/>
+      <c r="P349" s="140"/>
+      <c r="Q349" s="24"/>
+      <c r="R349" s="24"/>
+      <c r="S349" s="24"/>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A350" s="147"/>
+      <c r="B350" s="140"/>
+      <c r="C350" s="140"/>
+      <c r="D350" s="140"/>
+      <c r="E350" s="140"/>
+      <c r="F350" s="140"/>
+      <c r="G350" s="140"/>
+      <c r="H350" s="140"/>
+      <c r="I350" s="140"/>
+      <c r="J350" s="140"/>
+      <c r="K350" s="140"/>
+      <c r="L350" s="140"/>
+      <c r="M350" s="140"/>
+      <c r="N350" s="140"/>
+      <c r="O350" s="140"/>
+      <c r="P350" s="140"/>
+      <c r="Q350" s="24"/>
+      <c r="R350" s="24"/>
+      <c r="S350" s="24"/>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A351" s="147"/>
+      <c r="B351" s="140"/>
+      <c r="C351" s="140"/>
+      <c r="D351" s="140"/>
+      <c r="E351" s="140"/>
+      <c r="F351" s="140"/>
+      <c r="G351" s="140"/>
+      <c r="H351" s="140"/>
+      <c r="I351" s="140"/>
+      <c r="J351" s="140"/>
+      <c r="K351" s="140"/>
+      <c r="L351" s="140"/>
+      <c r="M351" s="140"/>
+      <c r="N351" s="140"/>
+      <c r="O351" s="140"/>
+      <c r="P351" s="140"/>
+      <c r="Q351" s="24"/>
+      <c r="R351" s="24"/>
+      <c r="S351" s="24"/>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A352" s="147"/>
+      <c r="B352" s="140"/>
+      <c r="C352" s="140"/>
+      <c r="D352" s="140"/>
+      <c r="E352" s="140"/>
+      <c r="F352" s="140"/>
+      <c r="G352" s="140"/>
+      <c r="H352" s="140"/>
+      <c r="I352" s="140"/>
+      <c r="J352" s="140"/>
+      <c r="K352" s="140"/>
+      <c r="L352" s="140"/>
+      <c r="M352" s="140"/>
+      <c r="N352" s="140"/>
+      <c r="O352" s="140"/>
+      <c r="P352" s="140"/>
+      <c r="Q352" s="24"/>
+      <c r="R352" s="24"/>
+      <c r="S352" s="24"/>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A353" s="147"/>
+      <c r="B353" s="140"/>
+      <c r="C353" s="140"/>
+      <c r="D353" s="140"/>
+      <c r="E353" s="140"/>
+      <c r="F353" s="140"/>
+      <c r="G353" s="140"/>
+      <c r="H353" s="140"/>
+      <c r="I353" s="140"/>
+      <c r="J353" s="140"/>
+      <c r="K353" s="140"/>
+      <c r="L353" s="140"/>
+      <c r="M353" s="140"/>
+      <c r="N353" s="140"/>
+      <c r="O353" s="140"/>
+      <c r="P353" s="140"/>
+      <c r="Q353" s="24"/>
+      <c r="R353" s="24"/>
+      <c r="S353" s="24"/>
+    </row>
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A354" s="147"/>
+      <c r="B354" s="140"/>
+      <c r="C354" s="140"/>
+      <c r="D354" s="140"/>
+      <c r="E354" s="140"/>
+      <c r="F354" s="140"/>
+      <c r="G354" s="140"/>
+      <c r="H354" s="140"/>
+      <c r="I354" s="140"/>
+      <c r="J354" s="140"/>
+      <c r="K354" s="140"/>
+      <c r="L354" s="140"/>
+      <c r="M354" s="140"/>
+      <c r="N354" s="140"/>
+      <c r="O354" s="140"/>
+      <c r="P354" s="140"/>
+      <c r="Q354" s="24"/>
+      <c r="R354" s="24"/>
+      <c r="S354" s="24"/>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A355" s="147"/>
+      <c r="B355" s="140"/>
+      <c r="C355" s="140"/>
+      <c r="D355" s="140"/>
+      <c r="E355" s="140"/>
+      <c r="F355" s="140"/>
+      <c r="G355" s="140"/>
+      <c r="H355" s="140"/>
+      <c r="I355" s="140"/>
+      <c r="J355" s="140"/>
+      <c r="K355" s="140"/>
+      <c r="L355" s="140"/>
+      <c r="M355" s="140"/>
+      <c r="N355" s="140"/>
+      <c r="O355" s="140"/>
+      <c r="P355" s="140"/>
+      <c r="Q355" s="24"/>
+      <c r="R355" s="24"/>
+      <c r="S355" s="24"/>
+    </row>
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A356" s="147"/>
+      <c r="B356" s="140"/>
+      <c r="C356" s="140"/>
+      <c r="D356" s="140"/>
+      <c r="E356" s="140"/>
+      <c r="F356" s="140"/>
+      <c r="G356" s="140"/>
+      <c r="H356" s="140"/>
+      <c r="I356" s="140"/>
+      <c r="J356" s="140"/>
+      <c r="K356" s="140"/>
+      <c r="L356" s="140"/>
+      <c r="M356" s="140"/>
+      <c r="N356" s="140"/>
+      <c r="O356" s="140"/>
+      <c r="P356" s="140"/>
+      <c r="Q356" s="24"/>
+      <c r="R356" s="24"/>
+      <c r="S356" s="24"/>
+    </row>
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A357" s="147"/>
+      <c r="B357" s="140"/>
+      <c r="C357" s="140"/>
+      <c r="D357" s="140"/>
+      <c r="E357" s="140"/>
+      <c r="F357" s="140"/>
+      <c r="G357" s="140"/>
+      <c r="H357" s="140"/>
+      <c r="I357" s="140"/>
+      <c r="J357" s="140"/>
+      <c r="K357" s="140"/>
+      <c r="L357" s="140"/>
+      <c r="M357" s="140"/>
+      <c r="N357" s="140"/>
+      <c r="O357" s="140"/>
+      <c r="P357" s="140"/>
+      <c r="Q357" s="24"/>
+      <c r="R357" s="24"/>
+      <c r="S357" s="24"/>
+    </row>
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A358" s="147"/>
+      <c r="B358" s="140"/>
+      <c r="C358" s="140"/>
+      <c r="D358" s="140"/>
+      <c r="E358" s="140"/>
+      <c r="F358" s="140"/>
+      <c r="G358" s="140"/>
+      <c r="H358" s="140"/>
+      <c r="I358" s="140"/>
+      <c r="J358" s="140"/>
+      <c r="K358" s="140"/>
+      <c r="L358" s="140"/>
+      <c r="M358" s="140"/>
+      <c r="N358" s="140"/>
+      <c r="O358" s="140"/>
+      <c r="P358" s="140"/>
+      <c r="Q358" s="24"/>
+      <c r="R358" s="24"/>
+      <c r="S358" s="24"/>
+    </row>
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A359" s="147"/>
+      <c r="B359" s="140"/>
+      <c r="C359" s="140"/>
+      <c r="D359" s="140"/>
+      <c r="E359" s="140"/>
+      <c r="F359" s="140"/>
+      <c r="G359" s="140"/>
+      <c r="H359" s="140"/>
+      <c r="I359" s="140"/>
+      <c r="J359" s="140"/>
+      <c r="K359" s="140"/>
+      <c r="L359" s="140"/>
+      <c r="M359" s="140"/>
+      <c r="N359" s="140"/>
+      <c r="O359" s="140"/>
+      <c r="P359" s="140"/>
+      <c r="Q359" s="24"/>
+      <c r="R359" s="24"/>
+      <c r="S359" s="24"/>
+    </row>
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A360" s="147"/>
+      <c r="B360" s="140"/>
+      <c r="C360" s="140"/>
+      <c r="D360" s="140"/>
+      <c r="E360" s="140"/>
+      <c r="F360" s="140"/>
+      <c r="G360" s="140"/>
+      <c r="H360" s="140"/>
+      <c r="I360" s="140"/>
+      <c r="J360" s="140"/>
+      <c r="K360" s="140"/>
+      <c r="L360" s="140"/>
+      <c r="M360" s="140"/>
+      <c r="N360" s="140"/>
+      <c r="O360" s="140"/>
+      <c r="P360" s="140"/>
+      <c r="Q360" s="24"/>
+      <c r="R360" s="24"/>
+      <c r="S360" s="24"/>
+    </row>
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A361" s="147"/>
+      <c r="B361" s="140"/>
+      <c r="C361" s="140"/>
+      <c r="D361" s="140"/>
+      <c r="E361" s="140"/>
+      <c r="F361" s="140"/>
+      <c r="G361" s="140"/>
+      <c r="H361" s="140"/>
+      <c r="I361" s="140"/>
+      <c r="J361" s="140"/>
+      <c r="K361" s="140"/>
+      <c r="L361" s="140"/>
+      <c r="M361" s="140"/>
+      <c r="N361" s="140"/>
+      <c r="O361" s="140"/>
+      <c r="P361" s="140"/>
+      <c r="Q361" s="24"/>
+      <c r="R361" s="24"/>
+      <c r="S361" s="24"/>
+    </row>
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A362" s="147"/>
+      <c r="B362" s="140"/>
+      <c r="C362" s="140"/>
+      <c r="D362" s="140"/>
+      <c r="E362" s="140"/>
+      <c r="F362" s="140"/>
+      <c r="G362" s="140"/>
+      <c r="H362" s="140"/>
+      <c r="I362" s="140"/>
+      <c r="J362" s="140"/>
+      <c r="K362" s="140"/>
+      <c r="L362" s="140"/>
+      <c r="M362" s="140"/>
+      <c r="N362" s="140"/>
+      <c r="O362" s="140"/>
+      <c r="P362" s="140"/>
+      <c r="Q362" s="24"/>
+      <c r="R362" s="24"/>
+      <c r="S362" s="24"/>
+    </row>
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A363" s="147"/>
+      <c r="B363" s="140"/>
+      <c r="C363" s="140"/>
+      <c r="D363" s="140"/>
+      <c r="E363" s="140"/>
+      <c r="F363" s="140"/>
+      <c r="G363" s="140"/>
+      <c r="H363" s="140"/>
+      <c r="I363" s="140"/>
+      <c r="J363" s="140"/>
+      <c r="K363" s="140"/>
+      <c r="L363" s="140"/>
+      <c r="M363" s="140"/>
+      <c r="N363" s="140"/>
+      <c r="O363" s="140"/>
+      <c r="P363" s="140"/>
+      <c r="Q363" s="24"/>
+      <c r="R363" s="24"/>
+      <c r="S363" s="24"/>
+    </row>
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A364" s="147"/>
+      <c r="B364" s="140"/>
+      <c r="C364" s="140"/>
+      <c r="D364" s="140"/>
+      <c r="E364" s="140"/>
+      <c r="F364" s="140"/>
+      <c r="G364" s="140"/>
+      <c r="H364" s="140"/>
+      <c r="I364" s="140"/>
+      <c r="J364" s="140"/>
+      <c r="K364" s="140"/>
+      <c r="L364" s="140"/>
+      <c r="M364" s="140"/>
+      <c r="N364" s="140"/>
+      <c r="O364" s="140"/>
+      <c r="P364" s="140"/>
+      <c r="Q364" s="24"/>
+      <c r="R364" s="24"/>
+      <c r="S364" s="24"/>
+    </row>
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A365" s="147"/>
+      <c r="B365" s="140"/>
+      <c r="C365" s="140"/>
+      <c r="D365" s="140"/>
+      <c r="E365" s="140"/>
+      <c r="F365" s="140"/>
+      <c r="G365" s="140"/>
+      <c r="H365" s="140"/>
+      <c r="I365" s="140"/>
+      <c r="J365" s="140"/>
+      <c r="K365" s="140"/>
+      <c r="L365" s="140"/>
+      <c r="M365" s="140"/>
+      <c r="N365" s="140"/>
+      <c r="O365" s="140"/>
+      <c r="P365" s="140"/>
+      <c r="Q365" s="24"/>
+      <c r="R365" s="24"/>
+      <c r="S365" s="24"/>
+    </row>
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A366" s="147"/>
+      <c r="B366" s="140"/>
+      <c r="C366" s="140"/>
+      <c r="D366" s="140"/>
+      <c r="E366" s="140"/>
+      <c r="F366" s="140"/>
+      <c r="G366" s="140"/>
+      <c r="H366" s="140"/>
+      <c r="I366" s="140"/>
+      <c r="J366" s="140"/>
+      <c r="K366" s="140"/>
+      <c r="L366" s="140"/>
+      <c r="M366" s="140"/>
+      <c r="N366" s="140"/>
+      <c r="O366" s="140"/>
+      <c r="P366" s="140"/>
+      <c r="Q366" s="24"/>
+      <c r="R366" s="24"/>
+      <c r="S366" s="24"/>
+    </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A367" s="147"/>
+      <c r="B367" s="140"/>
+      <c r="C367" s="140"/>
+      <c r="D367" s="140"/>
+      <c r="E367" s="140"/>
+      <c r="F367" s="140"/>
+      <c r="G367" s="140"/>
+      <c r="H367" s="140"/>
+      <c r="I367" s="140"/>
+      <c r="J367" s="140"/>
+      <c r="K367" s="140"/>
+      <c r="L367" s="140"/>
+      <c r="M367" s="140"/>
+      <c r="N367" s="140"/>
+      <c r="O367" s="140"/>
+      <c r="P367" s="140"/>
+      <c r="Q367" s="24"/>
+      <c r="R367" s="24"/>
+      <c r="S367" s="24"/>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A368" s="147"/>
+      <c r="B368" s="140"/>
+      <c r="C368" s="140"/>
+      <c r="D368" s="140"/>
+      <c r="E368" s="140"/>
+      <c r="F368" s="140"/>
+      <c r="G368" s="140"/>
+      <c r="H368" s="140"/>
+      <c r="I368" s="140"/>
+      <c r="J368" s="140"/>
+      <c r="K368" s="140"/>
+      <c r="L368" s="140"/>
+      <c r="M368" s="140"/>
+      <c r="N368" s="140"/>
+      <c r="O368" s="140"/>
+      <c r="P368" s="140"/>
+      <c r="Q368" s="24"/>
+      <c r="R368" s="24"/>
+      <c r="S368" s="24"/>
+    </row>
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A369" s="147"/>
+      <c r="B369" s="140"/>
+      <c r="C369" s="140"/>
+      <c r="D369" s="140"/>
+      <c r="E369" s="140"/>
+      <c r="F369" s="140"/>
+      <c r="G369" s="140"/>
+      <c r="H369" s="140"/>
+      <c r="I369" s="140"/>
+      <c r="J369" s="140"/>
+      <c r="K369" s="140"/>
+      <c r="L369" s="140"/>
+      <c r="M369" s="140"/>
+      <c r="N369" s="140"/>
+      <c r="O369" s="140"/>
+      <c r="P369" s="140"/>
+      <c r="Q369" s="24"/>
+      <c r="R369" s="24"/>
+      <c r="S369" s="24"/>
+    </row>
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A370" s="147"/>
+      <c r="B370" s="140"/>
+      <c r="C370" s="140"/>
+      <c r="D370" s="140"/>
+      <c r="E370" s="140"/>
+      <c r="F370" s="140"/>
+      <c r="G370" s="140"/>
+      <c r="H370" s="140"/>
+      <c r="I370" s="140"/>
+      <c r="J370" s="140"/>
+      <c r="K370" s="140"/>
+      <c r="L370" s="140"/>
+      <c r="M370" s="140"/>
+      <c r="N370" s="140"/>
+      <c r="O370" s="140"/>
+      <c r="P370" s="140"/>
+      <c r="Q370" s="24"/>
+      <c r="R370" s="24"/>
+      <c r="S370" s="24"/>
+    </row>
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A371" s="147"/>
+      <c r="B371" s="140"/>
+      <c r="C371" s="140"/>
+      <c r="D371" s="140"/>
+      <c r="E371" s="140"/>
+      <c r="F371" s="140"/>
+      <c r="G371" s="140"/>
+      <c r="H371" s="140"/>
+      <c r="I371" s="140"/>
+      <c r="J371" s="140"/>
+      <c r="K371" s="140"/>
+      <c r="L371" s="140"/>
+      <c r="M371" s="140"/>
+      <c r="N371" s="140"/>
+      <c r="O371" s="140"/>
+      <c r="P371" s="140"/>
+      <c r="Q371" s="24"/>
+      <c r="R371" s="24"/>
+      <c r="S371" s="24"/>
+    </row>
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A372" s="147"/>
+      <c r="B372" s="140"/>
+      <c r="C372" s="140"/>
+      <c r="D372" s="140"/>
+      <c r="E372" s="140"/>
+      <c r="F372" s="140"/>
+      <c r="G372" s="140"/>
+      <c r="H372" s="140"/>
+      <c r="I372" s="140"/>
+      <c r="J372" s="140"/>
+      <c r="K372" s="140"/>
+      <c r="L372" s="140"/>
+      <c r="M372" s="140"/>
+      <c r="N372" s="140"/>
+      <c r="O372" s="140"/>
+      <c r="P372" s="140"/>
+      <c r="Q372" s="24"/>
+      <c r="R372" s="24"/>
+      <c r="S372" s="24"/>
+    </row>
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O373" s="22"/>
+      <c r="P373" s="22"/>
+      <c r="Q373" s="24"/>
+      <c r="R373" s="24"/>
+      <c r="S373" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23465,10 +25609,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:R124"/>
+  <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" sqref="A1:I1"/>
@@ -23476,7 +25620,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
     <col min="2" max="3" width="9.42578125" style="2"/>
     <col min="4" max="4" width="9.5703125" style="2" customWidth="1"/>
     <col min="5" max="7" width="9.42578125" style="2"/>
@@ -23487,32 +25631,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
+      <c r="A1" s="151" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
     </row>
     <row r="3" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
@@ -29979,6 +32123,1650 @@
       </c>
       <c r="Q124" s="100">
         <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" s="36">
+        <v>44206</v>
+      </c>
+      <c r="B125" s="2">
+        <v>12</v>
+      </c>
+      <c r="C125" s="2">
+        <v>5</v>
+      </c>
+      <c r="D125" s="2">
+        <v>10</v>
+      </c>
+      <c r="E125" s="2">
+        <v>9</v>
+      </c>
+      <c r="F125" s="2">
+        <v>5</v>
+      </c>
+      <c r="G125" s="2">
+        <v>15</v>
+      </c>
+      <c r="H125" s="2">
+        <v>28</v>
+      </c>
+      <c r="I125" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="J125" s="2">
+        <v>17</v>
+      </c>
+      <c r="K125" s="2">
+        <v>13</v>
+      </c>
+      <c r="L125" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M125" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N125" s="2">
+        <v>8</v>
+      </c>
+      <c r="O125" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P125" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q125" s="100">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126" s="36">
+        <v>44207</v>
+      </c>
+      <c r="B126" s="2">
+        <v>10</v>
+      </c>
+      <c r="C126" s="2">
+        <v>7</v>
+      </c>
+      <c r="D126" s="2">
+        <v>11</v>
+      </c>
+      <c r="E126" s="2">
+        <v>8</v>
+      </c>
+      <c r="F126" s="2">
+        <v>6</v>
+      </c>
+      <c r="G126" s="2">
+        <v>13</v>
+      </c>
+      <c r="H126" s="2">
+        <v>31</v>
+      </c>
+      <c r="I126" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="J126" s="2">
+        <v>16</v>
+      </c>
+      <c r="K126" s="2">
+        <v>14</v>
+      </c>
+      <c r="L126" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M126" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N126" s="2">
+        <v>8</v>
+      </c>
+      <c r="O126" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P126" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q126" s="100">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127" s="130">
+        <v>44208</v>
+      </c>
+      <c r="B127" s="2">
+        <v>10</v>
+      </c>
+      <c r="C127" s="2">
+        <v>5</v>
+      </c>
+      <c r="D127" s="2">
+        <v>12</v>
+      </c>
+      <c r="E127" s="2">
+        <v>10</v>
+      </c>
+      <c r="F127" s="2">
+        <v>6</v>
+      </c>
+      <c r="G127" s="2">
+        <v>14</v>
+      </c>
+      <c r="H127" s="2">
+        <v>34</v>
+      </c>
+      <c r="I127" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="J127" s="2">
+        <v>14</v>
+      </c>
+      <c r="K127" s="2">
+        <v>15</v>
+      </c>
+      <c r="L127" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M127" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N127" s="2">
+        <v>11</v>
+      </c>
+      <c r="O127" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P127" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q127" s="100">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128" s="36">
+        <v>44209</v>
+      </c>
+      <c r="B128" s="2">
+        <v>10</v>
+      </c>
+      <c r="C128" s="2">
+        <v>5</v>
+      </c>
+      <c r="D128" s="2">
+        <v>13</v>
+      </c>
+      <c r="E128" s="2">
+        <v>8</v>
+      </c>
+      <c r="F128" s="2">
+        <v>7</v>
+      </c>
+      <c r="G128" s="2">
+        <v>15</v>
+      </c>
+      <c r="H128" s="2">
+        <v>35</v>
+      </c>
+      <c r="I128" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="J128" s="2">
+        <v>13</v>
+      </c>
+      <c r="K128" s="2">
+        <v>14</v>
+      </c>
+      <c r="L128" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M128" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N128" s="2">
+        <v>10</v>
+      </c>
+      <c r="O128" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P128" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q128" s="129">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A129" s="36">
+        <v>44210</v>
+      </c>
+      <c r="B129" s="2">
+        <v>14</v>
+      </c>
+      <c r="C129" s="2">
+        <v>5</v>
+      </c>
+      <c r="D129" s="2">
+        <v>13</v>
+      </c>
+      <c r="E129" s="2">
+        <v>8</v>
+      </c>
+      <c r="F129" s="2">
+        <v>7</v>
+      </c>
+      <c r="G129" s="2">
+        <v>16</v>
+      </c>
+      <c r="H129" s="2">
+        <v>37</v>
+      </c>
+      <c r="I129" s="99">
+        <v>5</v>
+      </c>
+      <c r="J129" s="2">
+        <v>14</v>
+      </c>
+      <c r="K129" s="2">
+        <v>13</v>
+      </c>
+      <c r="L129" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M129" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N129" s="2">
+        <v>10</v>
+      </c>
+      <c r="O129" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P129" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q129" s="129">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A130" s="36">
+        <v>44211</v>
+      </c>
+      <c r="B130" s="2">
+        <v>13</v>
+      </c>
+      <c r="C130" s="2">
+        <v>5</v>
+      </c>
+      <c r="D130" s="2">
+        <v>12</v>
+      </c>
+      <c r="E130" s="2">
+        <v>10</v>
+      </c>
+      <c r="F130" s="2">
+        <v>6</v>
+      </c>
+      <c r="G130" s="2">
+        <v>13</v>
+      </c>
+      <c r="H130" s="2">
+        <v>39</v>
+      </c>
+      <c r="I130" s="99">
+        <v>6</v>
+      </c>
+      <c r="J130" s="2">
+        <v>14</v>
+      </c>
+      <c r="K130" s="2">
+        <v>13</v>
+      </c>
+      <c r="L130" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M130" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N130" s="2">
+        <v>9</v>
+      </c>
+      <c r="O130" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P130" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q130" s="129">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A131" s="36">
+        <v>44212</v>
+      </c>
+      <c r="B131" s="2">
+        <v>10</v>
+      </c>
+      <c r="C131" s="2">
+        <v>5</v>
+      </c>
+      <c r="D131" s="2">
+        <v>12</v>
+      </c>
+      <c r="E131" s="2">
+        <v>11</v>
+      </c>
+      <c r="F131" s="2">
+        <v>7</v>
+      </c>
+      <c r="G131" s="2">
+        <v>12</v>
+      </c>
+      <c r="H131" s="2">
+        <v>39</v>
+      </c>
+      <c r="I131" s="2">
+        <v>7</v>
+      </c>
+      <c r="J131" s="2">
+        <v>19</v>
+      </c>
+      <c r="K131" s="2">
+        <v>13</v>
+      </c>
+      <c r="L131" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M131" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N131" s="2">
+        <v>9</v>
+      </c>
+      <c r="O131" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P131" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q131" s="2">
+        <v>145</v>
+      </c>
+      <c r="R131" s="128"/>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A132" s="36">
+        <v>44213</v>
+      </c>
+      <c r="B132" s="2">
+        <v>12</v>
+      </c>
+      <c r="C132" s="2">
+        <v>5</v>
+      </c>
+      <c r="D132" s="2">
+        <v>13</v>
+      </c>
+      <c r="E132" s="2">
+        <v>10</v>
+      </c>
+      <c r="F132" s="2">
+        <v>8</v>
+      </c>
+      <c r="G132" s="2">
+        <v>11</v>
+      </c>
+      <c r="H132" s="2">
+        <v>40</v>
+      </c>
+      <c r="I132" s="2">
+        <v>7</v>
+      </c>
+      <c r="J132" s="2">
+        <v>19</v>
+      </c>
+      <c r="K132" s="2">
+        <v>12</v>
+      </c>
+      <c r="L132" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M132" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N132" s="2">
+        <v>9</v>
+      </c>
+      <c r="O132" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P132" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q132" s="129">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A133" s="36">
+        <v>44214</v>
+      </c>
+      <c r="B133" s="2">
+        <v>11</v>
+      </c>
+      <c r="C133" s="2">
+        <v>6</v>
+      </c>
+      <c r="D133" s="2">
+        <v>14</v>
+      </c>
+      <c r="E133" s="2">
+        <v>8</v>
+      </c>
+      <c r="F133" s="2">
+        <v>11</v>
+      </c>
+      <c r="G133" s="2">
+        <v>11</v>
+      </c>
+      <c r="H133" s="2">
+        <v>38</v>
+      </c>
+      <c r="I133" s="2">
+        <v>7</v>
+      </c>
+      <c r="J133" s="2">
+        <v>20</v>
+      </c>
+      <c r="K133" s="2">
+        <v>11</v>
+      </c>
+      <c r="L133" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M133" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N133" s="2">
+        <v>8</v>
+      </c>
+      <c r="O133" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P133" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q133" s="129">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A134" s="36">
+        <v>44215</v>
+      </c>
+      <c r="B134" s="2">
+        <v>14</v>
+      </c>
+      <c r="C134" s="2">
+        <v>6</v>
+      </c>
+      <c r="D134" s="2">
+        <v>15</v>
+      </c>
+      <c r="E134" s="2">
+        <v>8</v>
+      </c>
+      <c r="F134" s="2">
+        <v>9</v>
+      </c>
+      <c r="G134" s="2">
+        <v>10</v>
+      </c>
+      <c r="H134" s="2">
+        <v>43</v>
+      </c>
+      <c r="I134" s="2">
+        <v>7</v>
+      </c>
+      <c r="J134" s="2">
+        <v>18</v>
+      </c>
+      <c r="K134" s="2">
+        <v>12</v>
+      </c>
+      <c r="L134" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M134" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N134" s="2">
+        <v>7</v>
+      </c>
+      <c r="O134" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P134" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q134" s="100">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A135" s="36">
+        <v>44216</v>
+      </c>
+      <c r="B135" s="2">
+        <v>16</v>
+      </c>
+      <c r="C135" s="2">
+        <v>7</v>
+      </c>
+      <c r="D135" s="2">
+        <v>14</v>
+      </c>
+      <c r="E135" s="2">
+        <v>8</v>
+      </c>
+      <c r="F135" s="2">
+        <v>9</v>
+      </c>
+      <c r="G135" s="2">
+        <v>10</v>
+      </c>
+      <c r="H135" s="2">
+        <v>43</v>
+      </c>
+      <c r="I135" s="2">
+        <v>8</v>
+      </c>
+      <c r="J135" s="2">
+        <v>20</v>
+      </c>
+      <c r="K135" s="2">
+        <v>13</v>
+      </c>
+      <c r="L135" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M135" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N135" s="2">
+        <v>7</v>
+      </c>
+      <c r="O135" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P135" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q135" s="100">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A136" s="36">
+        <v>44217</v>
+      </c>
+      <c r="B136" s="2">
+        <v>16</v>
+      </c>
+      <c r="C136" s="2">
+        <v>8</v>
+      </c>
+      <c r="D136" s="2">
+        <v>13</v>
+      </c>
+      <c r="E136" s="2">
+        <v>6</v>
+      </c>
+      <c r="F136" s="2">
+        <v>9</v>
+      </c>
+      <c r="G136" s="2">
+        <v>8</v>
+      </c>
+      <c r="H136" s="2">
+        <v>45</v>
+      </c>
+      <c r="I136" s="2">
+        <v>8</v>
+      </c>
+      <c r="J136" s="2">
+        <v>24</v>
+      </c>
+      <c r="K136" s="2">
+        <v>16</v>
+      </c>
+      <c r="L136" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M136" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N136" s="2">
+        <v>7</v>
+      </c>
+      <c r="O136" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P136" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q136" s="100">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A137" s="36">
+        <v>44218</v>
+      </c>
+      <c r="B137" s="2">
+        <v>15</v>
+      </c>
+      <c r="C137" s="2">
+        <v>7</v>
+      </c>
+      <c r="D137" s="2">
+        <v>12</v>
+      </c>
+      <c r="E137" s="2">
+        <v>6</v>
+      </c>
+      <c r="F137" s="2">
+        <v>8</v>
+      </c>
+      <c r="G137" s="2">
+        <v>9</v>
+      </c>
+      <c r="H137" s="2">
+        <v>49</v>
+      </c>
+      <c r="I137" s="2">
+        <v>7</v>
+      </c>
+      <c r="J137" s="2">
+        <v>24</v>
+      </c>
+      <c r="K137" s="2">
+        <v>15</v>
+      </c>
+      <c r="L137" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M137" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N137" s="2">
+        <v>8</v>
+      </c>
+      <c r="O137" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P137" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q137" s="100">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A138" s="36">
+        <v>44219</v>
+      </c>
+      <c r="B138" s="2">
+        <v>13</v>
+      </c>
+      <c r="C138" s="2">
+        <v>5</v>
+      </c>
+      <c r="D138" s="2">
+        <v>13</v>
+      </c>
+      <c r="E138" s="2">
+        <v>6</v>
+      </c>
+      <c r="F138" s="2">
+        <v>8</v>
+      </c>
+      <c r="G138" s="2">
+        <v>10</v>
+      </c>
+      <c r="H138" s="2">
+        <v>45</v>
+      </c>
+      <c r="I138" s="2">
+        <v>7</v>
+      </c>
+      <c r="J138" s="2">
+        <v>25</v>
+      </c>
+      <c r="K138" s="2">
+        <v>19</v>
+      </c>
+      <c r="L138" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M138" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N138" s="2">
+        <v>7</v>
+      </c>
+      <c r="O138" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P138" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q138" s="100">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A139" s="36">
+        <v>44220</v>
+      </c>
+      <c r="B139" s="2">
+        <v>14</v>
+      </c>
+      <c r="C139" s="2">
+        <v>5</v>
+      </c>
+      <c r="D139" s="2">
+        <v>13</v>
+      </c>
+      <c r="E139" s="2">
+        <v>6</v>
+      </c>
+      <c r="F139" s="2">
+        <v>7</v>
+      </c>
+      <c r="G139" s="2">
+        <v>11</v>
+      </c>
+      <c r="H139" s="2">
+        <v>44</v>
+      </c>
+      <c r="I139" s="2">
+        <v>6</v>
+      </c>
+      <c r="J139" s="2">
+        <v>25</v>
+      </c>
+      <c r="K139" s="2">
+        <v>20</v>
+      </c>
+      <c r="L139" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M139" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N139" s="2">
+        <v>5</v>
+      </c>
+      <c r="O139" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P139" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q139" s="100">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A140" s="36">
+        <v>44221</v>
+      </c>
+      <c r="B140" s="2">
+        <v>15</v>
+      </c>
+      <c r="C140" s="2">
+        <v>5</v>
+      </c>
+      <c r="D140" s="2">
+        <v>12</v>
+      </c>
+      <c r="E140" s="2">
+        <v>6</v>
+      </c>
+      <c r="F140" s="2">
+        <v>7</v>
+      </c>
+      <c r="G140" s="2">
+        <v>9</v>
+      </c>
+      <c r="H140" s="2">
+        <v>44</v>
+      </c>
+      <c r="I140" s="2">
+        <v>6</v>
+      </c>
+      <c r="J140" s="2">
+        <v>25</v>
+      </c>
+      <c r="K140" s="2">
+        <v>16</v>
+      </c>
+      <c r="L140" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M140" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N140" s="2">
+        <v>5</v>
+      </c>
+      <c r="O140" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P140" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q140" s="100">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A141" s="36">
+        <v>44222</v>
+      </c>
+      <c r="B141" s="2">
+        <v>17</v>
+      </c>
+      <c r="C141" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="2">
+        <v>11</v>
+      </c>
+      <c r="E141" s="2">
+        <v>6</v>
+      </c>
+      <c r="F141" s="2">
+        <v>7</v>
+      </c>
+      <c r="G141" s="2">
+        <v>7</v>
+      </c>
+      <c r="H141" s="2">
+        <v>46</v>
+      </c>
+      <c r="I141" s="2">
+        <v>6</v>
+      </c>
+      <c r="J141" s="2">
+        <v>24</v>
+      </c>
+      <c r="K141" s="2">
+        <v>16</v>
+      </c>
+      <c r="L141" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M141" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N141" s="2">
+        <v>5</v>
+      </c>
+      <c r="O141" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P141" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q141" s="100">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A142" s="36">
+        <v>44223</v>
+      </c>
+      <c r="B142" s="2">
+        <v>17</v>
+      </c>
+      <c r="C142" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="2">
+        <v>11</v>
+      </c>
+      <c r="E142" s="2">
+        <v>5</v>
+      </c>
+      <c r="F142" s="2">
+        <v>8</v>
+      </c>
+      <c r="G142" s="2">
+        <v>7</v>
+      </c>
+      <c r="H142" s="2">
+        <v>47</v>
+      </c>
+      <c r="I142" s="2">
+        <v>5</v>
+      </c>
+      <c r="J142" s="2">
+        <v>23</v>
+      </c>
+      <c r="K142" s="2">
+        <v>13</v>
+      </c>
+      <c r="L142" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M142" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N142" s="2">
+        <v>5</v>
+      </c>
+      <c r="O142" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P142" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q142" s="100">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A143" s="36">
+        <v>44224</v>
+      </c>
+      <c r="B143" s="2">
+        <v>17</v>
+      </c>
+      <c r="C143" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" s="2">
+        <v>10</v>
+      </c>
+      <c r="E143" s="2">
+        <v>5</v>
+      </c>
+      <c r="F143" s="2">
+        <v>8</v>
+      </c>
+      <c r="G143" s="2">
+        <v>9</v>
+      </c>
+      <c r="H143" s="2">
+        <v>45</v>
+      </c>
+      <c r="I143" s="2">
+        <v>6</v>
+      </c>
+      <c r="J143" s="2">
+        <v>22</v>
+      </c>
+      <c r="K143" s="2">
+        <v>10</v>
+      </c>
+      <c r="L143" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M143" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N143" s="2">
+        <v>6</v>
+      </c>
+      <c r="O143" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P143" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q143" s="100">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A144" s="36">
+        <v>44225</v>
+      </c>
+      <c r="B144" s="2">
+        <v>17</v>
+      </c>
+      <c r="C144" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" s="2">
+        <v>10</v>
+      </c>
+      <c r="E144" s="2">
+        <v>5</v>
+      </c>
+      <c r="F144" s="2">
+        <v>9</v>
+      </c>
+      <c r="G144" s="2">
+        <v>10</v>
+      </c>
+      <c r="H144" s="2">
+        <v>46</v>
+      </c>
+      <c r="I144" s="2">
+        <v>6</v>
+      </c>
+      <c r="J144" s="2">
+        <v>22</v>
+      </c>
+      <c r="K144" s="2">
+        <v>10</v>
+      </c>
+      <c r="L144" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M144" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N144" s="2">
+        <v>6</v>
+      </c>
+      <c r="O144" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P144" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q144" s="100">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="36">
+        <v>44226</v>
+      </c>
+      <c r="B145" s="144">
+        <v>16</v>
+      </c>
+      <c r="C145" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="144">
+        <v>10</v>
+      </c>
+      <c r="E145" s="144">
+        <v>5</v>
+      </c>
+      <c r="F145" s="144">
+        <v>8</v>
+      </c>
+      <c r="G145" s="144">
+        <v>9</v>
+      </c>
+      <c r="H145" s="144">
+        <v>44</v>
+      </c>
+      <c r="I145" s="145">
+        <v>6</v>
+      </c>
+      <c r="J145" s="144">
+        <v>23</v>
+      </c>
+      <c r="K145" s="146">
+        <v>12</v>
+      </c>
+      <c r="L145" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M145" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="N145" s="144">
+        <v>7</v>
+      </c>
+      <c r="O145" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="P145" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q145" s="100">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A146" s="36">
+        <v>44227</v>
+      </c>
+      <c r="B146" s="144">
+        <v>15</v>
+      </c>
+      <c r="C146" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="144">
+        <v>10</v>
+      </c>
+      <c r="E146" s="144">
+        <v>5</v>
+      </c>
+      <c r="F146" s="144">
+        <v>9</v>
+      </c>
+      <c r="G146" s="144">
+        <v>9</v>
+      </c>
+      <c r="H146" s="144">
+        <v>42</v>
+      </c>
+      <c r="I146" s="145">
+        <v>7</v>
+      </c>
+      <c r="J146" s="144">
+        <v>23</v>
+      </c>
+      <c r="K146" s="146">
+        <v>13</v>
+      </c>
+      <c r="L146" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M146" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="N146" s="144">
+        <v>8</v>
+      </c>
+      <c r="O146" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="P146" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q146" s="100">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A147" s="36">
+        <v>44228</v>
+      </c>
+      <c r="B147" s="144">
+        <v>15</v>
+      </c>
+      <c r="C147" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="144">
+        <v>11</v>
+      </c>
+      <c r="E147" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="F147" s="144">
+        <v>10</v>
+      </c>
+      <c r="G147" s="144">
+        <v>8</v>
+      </c>
+      <c r="H147" s="144">
+        <v>40</v>
+      </c>
+      <c r="I147" s="145">
+        <v>6</v>
+      </c>
+      <c r="J147" s="144">
+        <v>22</v>
+      </c>
+      <c r="K147" s="146">
+        <v>15</v>
+      </c>
+      <c r="L147" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M147" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="N147" s="144">
+        <v>10</v>
+      </c>
+      <c r="O147" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="P147" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q147" s="100">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A148" s="36">
+        <v>44229</v>
+      </c>
+      <c r="B148" s="2">
+        <v>15</v>
+      </c>
+      <c r="C148" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" s="2">
+        <v>6</v>
+      </c>
+      <c r="E148" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="F148" s="2">
+        <v>9</v>
+      </c>
+      <c r="G148" s="2">
+        <v>10</v>
+      </c>
+      <c r="H148" s="2">
+        <v>42</v>
+      </c>
+      <c r="I148" s="2">
+        <v>8</v>
+      </c>
+      <c r="J148" s="2">
+        <v>22</v>
+      </c>
+      <c r="K148" s="2">
+        <v>12</v>
+      </c>
+      <c r="L148" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M148" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="N148" s="2">
+        <v>10</v>
+      </c>
+      <c r="O148" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="P148" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q148" s="129">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A149" s="36">
+        <v>44230</v>
+      </c>
+      <c r="B149" s="2">
+        <v>14</v>
+      </c>
+      <c r="C149" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="2">
+        <v>6</v>
+      </c>
+      <c r="E149" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149" s="2">
+        <v>8</v>
+      </c>
+      <c r="G149" s="2">
+        <v>10</v>
+      </c>
+      <c r="H149" s="2">
+        <v>38</v>
+      </c>
+      <c r="I149" s="2">
+        <v>8</v>
+      </c>
+      <c r="J149" s="2">
+        <v>21</v>
+      </c>
+      <c r="K149" s="2">
+        <v>15</v>
+      </c>
+      <c r="L149" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M149" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="N149" s="2">
+        <v>8</v>
+      </c>
+      <c r="O149" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="P149" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q149" s="129">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A150" s="36">
+        <v>44231</v>
+      </c>
+      <c r="B150" s="2">
+        <v>14</v>
+      </c>
+      <c r="C150" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="2">
+        <v>6</v>
+      </c>
+      <c r="E150" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="F150" s="2">
+        <v>9</v>
+      </c>
+      <c r="G150" s="2">
+        <v>8</v>
+      </c>
+      <c r="H150" s="2">
+        <v>35</v>
+      </c>
+      <c r="I150" s="2">
+        <v>7</v>
+      </c>
+      <c r="J150" s="2">
+        <v>20</v>
+      </c>
+      <c r="K150" s="2">
+        <v>15</v>
+      </c>
+      <c r="L150" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M150" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="N150" s="2">
+        <v>9</v>
+      </c>
+      <c r="O150" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="P150" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q150" s="129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A151" s="36">
+        <v>44232</v>
+      </c>
+      <c r="B151" s="2">
+        <v>14</v>
+      </c>
+      <c r="C151" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="2">
+        <v>7</v>
+      </c>
+      <c r="E151" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="F151" s="2">
+        <v>7</v>
+      </c>
+      <c r="G151" s="2">
+        <v>6</v>
+      </c>
+      <c r="H151" s="2">
+        <v>33</v>
+      </c>
+      <c r="I151" s="2">
+        <v>7</v>
+      </c>
+      <c r="J151" s="2">
+        <v>21</v>
+      </c>
+      <c r="K151" s="2">
+        <v>15</v>
+      </c>
+      <c r="L151" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M151" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="N151" s="2">
+        <v>9</v>
+      </c>
+      <c r="O151" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="P151" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q151" s="129">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A152" s="36">
+        <v>44233</v>
+      </c>
+      <c r="B152" s="2">
+        <v>12</v>
+      </c>
+      <c r="C152" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="2">
+        <v>8</v>
+      </c>
+      <c r="E152" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="F152" s="2">
+        <v>7</v>
+      </c>
+      <c r="G152" s="2">
+        <v>6</v>
+      </c>
+      <c r="H152" s="2">
+        <v>29</v>
+      </c>
+      <c r="I152" s="2">
+        <v>8</v>
+      </c>
+      <c r="J152" s="2">
+        <v>20</v>
+      </c>
+      <c r="K152" s="2">
+        <v>15</v>
+      </c>
+      <c r="L152" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M152" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="N152" s="2">
+        <v>8</v>
+      </c>
+      <c r="O152" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="P152" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q152" s="100">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A153" s="36">
+        <v>44234</v>
+      </c>
+      <c r="B153" s="2">
+        <v>10</v>
+      </c>
+      <c r="C153" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="2">
+        <v>6</v>
+      </c>
+      <c r="E153" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="F153" s="2">
+        <v>5</v>
+      </c>
+      <c r="G153" s="2">
+        <v>6</v>
+      </c>
+      <c r="H153" s="2">
+        <v>30</v>
+      </c>
+      <c r="I153" s="2">
+        <v>7</v>
+      </c>
+      <c r="J153" s="2">
+        <v>19</v>
+      </c>
+      <c r="K153" s="2">
+        <v>12</v>
+      </c>
+      <c r="L153" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M153" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="N153" s="2">
+        <v>7</v>
+      </c>
+      <c r="O153" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="P153" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q153" s="100">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A154" s="36">
+        <v>44235</v>
+      </c>
+      <c r="B154" s="2">
+        <v>11</v>
+      </c>
+      <c r="C154" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="2">
+        <v>6</v>
+      </c>
+      <c r="E154" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="G154" s="2">
+        <v>6</v>
+      </c>
+      <c r="H154" s="2">
+        <v>29</v>
+      </c>
+      <c r="I154" s="2">
+        <v>9</v>
+      </c>
+      <c r="J154" s="2">
+        <v>20</v>
+      </c>
+      <c r="K154" s="2">
+        <v>10</v>
+      </c>
+      <c r="L154" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M154" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="N154" s="2">
+        <v>7</v>
+      </c>
+      <c r="O154" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="P154" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q154" s="100">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A155" s="36">
+        <v>44236</v>
+      </c>
+      <c r="B155" s="2">
+        <v>12</v>
+      </c>
+      <c r="C155" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="2">
+        <v>6</v>
+      </c>
+      <c r="E155" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="F155" s="2">
+        <v>5</v>
+      </c>
+      <c r="G155" s="2">
+        <v>7</v>
+      </c>
+      <c r="H155" s="2">
+        <v>26</v>
+      </c>
+      <c r="I155" s="2">
+        <v>10</v>
+      </c>
+      <c r="J155" s="2">
+        <v>21</v>
+      </c>
+      <c r="K155" s="2">
+        <v>12</v>
+      </c>
+      <c r="L155" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M155" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="N155" s="2">
+        <v>7</v>
+      </c>
+      <c r="O155" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="P155" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q155" s="100">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -29996,10 +33784,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:R124"/>
+  <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" sqref="A1:I1"/>
@@ -30007,7 +33795,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
     <col min="2" max="3" width="9.42578125" style="2"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
     <col min="5" max="9" width="9.42578125" style="2"/>
@@ -30016,30 +33804,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
+      <c r="A1" s="151" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
     </row>
     <row r="3" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
@@ -36505,6 +40293,1649 @@
       </c>
       <c r="Q124" s="117">
         <v>1596</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" s="36">
+        <v>44206</v>
+      </c>
+      <c r="B125" s="2">
+        <v>197</v>
+      </c>
+      <c r="C125" s="2">
+        <v>37</v>
+      </c>
+      <c r="D125" s="2">
+        <v>44</v>
+      </c>
+      <c r="E125" s="2">
+        <v>79</v>
+      </c>
+      <c r="F125" s="2">
+        <v>63</v>
+      </c>
+      <c r="G125" s="2">
+        <v>94</v>
+      </c>
+      <c r="H125" s="2">
+        <v>454</v>
+      </c>
+      <c r="I125" s="2">
+        <v>12</v>
+      </c>
+      <c r="J125" s="2">
+        <v>283</v>
+      </c>
+      <c r="K125" s="2">
+        <v>191</v>
+      </c>
+      <c r="L125" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M125" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N125" s="2">
+        <v>139</v>
+      </c>
+      <c r="O125" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P125" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q125" s="117">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126" s="36">
+        <v>44207</v>
+      </c>
+      <c r="B126" s="2">
+        <v>203</v>
+      </c>
+      <c r="C126" s="2">
+        <v>40</v>
+      </c>
+      <c r="D126" s="2">
+        <v>45</v>
+      </c>
+      <c r="E126" s="2">
+        <v>82</v>
+      </c>
+      <c r="F126" s="2">
+        <v>66</v>
+      </c>
+      <c r="G126" s="2">
+        <v>98</v>
+      </c>
+      <c r="H126" s="2">
+        <v>461</v>
+      </c>
+      <c r="I126" s="2">
+        <v>13</v>
+      </c>
+      <c r="J126" s="2">
+        <v>306</v>
+      </c>
+      <c r="K126" s="2">
+        <v>191</v>
+      </c>
+      <c r="L126" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M126" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N126" s="2">
+        <v>155</v>
+      </c>
+      <c r="O126" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P126" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q126" s="117">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127" s="130">
+        <v>44208</v>
+      </c>
+      <c r="B127" s="2">
+        <v>198</v>
+      </c>
+      <c r="C127" s="2">
+        <v>37</v>
+      </c>
+      <c r="D127" s="2">
+        <v>48</v>
+      </c>
+      <c r="E127" s="2">
+        <v>87</v>
+      </c>
+      <c r="F127" s="2">
+        <v>73</v>
+      </c>
+      <c r="G127" s="2">
+        <v>110</v>
+      </c>
+      <c r="H127" s="2">
+        <v>489</v>
+      </c>
+      <c r="I127" s="2">
+        <v>17</v>
+      </c>
+      <c r="J127" s="2">
+        <v>294</v>
+      </c>
+      <c r="K127" s="2">
+        <v>190</v>
+      </c>
+      <c r="L127" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M127" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N127" s="2">
+        <v>168</v>
+      </c>
+      <c r="O127" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P127" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q127" s="117">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128" s="36">
+        <v>44209</v>
+      </c>
+      <c r="B128" s="2">
+        <v>210</v>
+      </c>
+      <c r="C128" s="2">
+        <v>41</v>
+      </c>
+      <c r="D128" s="2">
+        <v>53</v>
+      </c>
+      <c r="E128" s="2">
+        <v>93</v>
+      </c>
+      <c r="F128" s="2">
+        <v>88</v>
+      </c>
+      <c r="G128" s="2">
+        <v>113</v>
+      </c>
+      <c r="H128" s="2">
+        <v>503</v>
+      </c>
+      <c r="I128" s="2">
+        <v>21</v>
+      </c>
+      <c r="J128" s="2">
+        <v>302</v>
+      </c>
+      <c r="K128" s="2">
+        <v>190</v>
+      </c>
+      <c r="L128" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M128" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N128" s="2">
+        <v>174</v>
+      </c>
+      <c r="O128" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P128" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q128" s="118">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A129" s="36">
+        <v>44210</v>
+      </c>
+      <c r="B129" s="2">
+        <v>210</v>
+      </c>
+      <c r="C129" s="2">
+        <v>41</v>
+      </c>
+      <c r="D129" s="2">
+        <v>55</v>
+      </c>
+      <c r="E129" s="2">
+        <v>97</v>
+      </c>
+      <c r="F129" s="2">
+        <v>95</v>
+      </c>
+      <c r="G129" s="2">
+        <v>121</v>
+      </c>
+      <c r="H129" s="2">
+        <v>504</v>
+      </c>
+      <c r="I129" s="2">
+        <v>26</v>
+      </c>
+      <c r="J129" s="2">
+        <v>312</v>
+      </c>
+      <c r="K129" s="2">
+        <v>190</v>
+      </c>
+      <c r="L129" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M129" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N129" s="2">
+        <v>184</v>
+      </c>
+      <c r="O129" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P129" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q129" s="118">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130" s="36">
+        <v>44211</v>
+      </c>
+      <c r="B130" s="2">
+        <v>208</v>
+      </c>
+      <c r="C130" s="2">
+        <v>41</v>
+      </c>
+      <c r="D130" s="2">
+        <v>60</v>
+      </c>
+      <c r="E130" s="2">
+        <v>106</v>
+      </c>
+      <c r="F130" s="2">
+        <v>95</v>
+      </c>
+      <c r="G130" s="2">
+        <v>127</v>
+      </c>
+      <c r="H130" s="2">
+        <v>507</v>
+      </c>
+      <c r="I130" s="2">
+        <v>28</v>
+      </c>
+      <c r="J130" s="2">
+        <v>325</v>
+      </c>
+      <c r="K130" s="2">
+        <v>190</v>
+      </c>
+      <c r="L130" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M130" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N130" s="2">
+        <v>189</v>
+      </c>
+      <c r="O130" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P130" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q130" s="118">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A131" s="36">
+        <v>44212</v>
+      </c>
+      <c r="B131" s="2">
+        <v>205</v>
+      </c>
+      <c r="C131" s="2">
+        <v>39</v>
+      </c>
+      <c r="D131" s="2">
+        <v>63</v>
+      </c>
+      <c r="E131" s="2">
+        <v>106</v>
+      </c>
+      <c r="F131" s="2">
+        <v>99</v>
+      </c>
+      <c r="G131" s="2">
+        <v>133</v>
+      </c>
+      <c r="H131" s="2">
+        <v>494</v>
+      </c>
+      <c r="I131" s="2">
+        <v>24</v>
+      </c>
+      <c r="J131" s="2">
+        <v>339</v>
+      </c>
+      <c r="K131" s="124">
+        <v>199</v>
+      </c>
+      <c r="L131" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M131" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N131" s="2">
+        <v>189</v>
+      </c>
+      <c r="O131" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P131" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q131" s="118">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A132" s="36">
+        <v>44213</v>
+      </c>
+      <c r="B132" s="2">
+        <v>217</v>
+      </c>
+      <c r="C132" s="2">
+        <v>38</v>
+      </c>
+      <c r="D132" s="2">
+        <v>67</v>
+      </c>
+      <c r="E132" s="2">
+        <v>109</v>
+      </c>
+      <c r="F132" s="2">
+        <v>104</v>
+      </c>
+      <c r="G132" s="2">
+        <v>124</v>
+      </c>
+      <c r="H132" s="2">
+        <v>496</v>
+      </c>
+      <c r="I132" s="2">
+        <v>27</v>
+      </c>
+      <c r="J132" s="2">
+        <v>343</v>
+      </c>
+      <c r="K132" s="2">
+        <v>208</v>
+      </c>
+      <c r="L132" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M132" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N132" s="2">
+        <v>182</v>
+      </c>
+      <c r="O132" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P132" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q132" s="118">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A133" s="36">
+        <v>44214</v>
+      </c>
+      <c r="B133" s="2">
+        <v>221</v>
+      </c>
+      <c r="C133" s="2">
+        <v>38</v>
+      </c>
+      <c r="D133" s="2">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>105</v>
+      </c>
+      <c r="F133" s="2">
+        <v>113</v>
+      </c>
+      <c r="G133" s="2">
+        <v>120</v>
+      </c>
+      <c r="H133" s="2">
+        <v>499</v>
+      </c>
+      <c r="I133" s="2">
+        <v>29</v>
+      </c>
+      <c r="J133" s="2">
+        <v>367</v>
+      </c>
+      <c r="K133" s="2">
+        <v>216</v>
+      </c>
+      <c r="L133" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M133" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N133" s="2">
+        <v>179</v>
+      </c>
+      <c r="O133" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P133" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q133" s="118">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A134" s="36">
+        <v>44215</v>
+      </c>
+      <c r="B134" s="2">
+        <v>232</v>
+      </c>
+      <c r="C134" s="2">
+        <v>39</v>
+      </c>
+      <c r="D134" s="2">
+        <v>70</v>
+      </c>
+      <c r="E134" s="2">
+        <v>118</v>
+      </c>
+      <c r="F134" s="2">
+        <v>106</v>
+      </c>
+      <c r="G134" s="2">
+        <v>121</v>
+      </c>
+      <c r="H134" s="2">
+        <v>526</v>
+      </c>
+      <c r="I134" s="2">
+        <v>33</v>
+      </c>
+      <c r="J134" s="2">
+        <v>351</v>
+      </c>
+      <c r="K134" s="2">
+        <v>208</v>
+      </c>
+      <c r="L134" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M134" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N134" s="2">
+        <v>182</v>
+      </c>
+      <c r="O134" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P134" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q134" s="117">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A135" s="36">
+        <v>44216</v>
+      </c>
+      <c r="B135" s="2">
+        <v>237</v>
+      </c>
+      <c r="C135" s="2">
+        <v>41</v>
+      </c>
+      <c r="D135" s="2">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>123</v>
+      </c>
+      <c r="F135" s="2">
+        <v>114</v>
+      </c>
+      <c r="G135" s="2">
+        <v>114</v>
+      </c>
+      <c r="H135" s="2">
+        <v>518</v>
+      </c>
+      <c r="I135" s="2">
+        <v>32</v>
+      </c>
+      <c r="J135" s="2">
+        <v>366</v>
+      </c>
+      <c r="K135" s="2">
+        <v>211</v>
+      </c>
+      <c r="L135" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M135" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N135" s="2">
+        <v>174</v>
+      </c>
+      <c r="O135" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P135" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q135" s="117">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A136" s="36">
+        <v>44217</v>
+      </c>
+      <c r="B136" s="2">
+        <v>225</v>
+      </c>
+      <c r="C136" s="2">
+        <v>38</v>
+      </c>
+      <c r="D136" s="2">
+        <v>75</v>
+      </c>
+      <c r="E136" s="2">
+        <v>123</v>
+      </c>
+      <c r="F136" s="2">
+        <v>116</v>
+      </c>
+      <c r="G136" s="2">
+        <v>113</v>
+      </c>
+      <c r="H136" s="2">
+        <v>542</v>
+      </c>
+      <c r="I136" s="2">
+        <v>32</v>
+      </c>
+      <c r="J136" s="2">
+        <v>364</v>
+      </c>
+      <c r="K136" s="2">
+        <v>202</v>
+      </c>
+      <c r="L136" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M136" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N136" s="99">
+        <v>171</v>
+      </c>
+      <c r="O136" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P136" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q136" s="117">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A137" s="36">
+        <v>44218</v>
+      </c>
+      <c r="B137" s="2">
+        <v>235</v>
+      </c>
+      <c r="C137" s="2">
+        <v>41</v>
+      </c>
+      <c r="D137" s="2">
+        <v>70</v>
+      </c>
+      <c r="E137" s="2">
+        <v>119</v>
+      </c>
+      <c r="F137" s="2">
+        <v>121</v>
+      </c>
+      <c r="G137" s="2">
+        <v>115</v>
+      </c>
+      <c r="H137" s="2">
+        <v>566</v>
+      </c>
+      <c r="I137" s="2">
+        <v>33</v>
+      </c>
+      <c r="J137" s="2">
+        <v>366</v>
+      </c>
+      <c r="K137" s="2">
+        <v>216</v>
+      </c>
+      <c r="L137" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M137" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N137" s="2">
+        <v>167</v>
+      </c>
+      <c r="O137" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P137" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q137" s="117">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A138" s="36">
+        <v>44219</v>
+      </c>
+      <c r="B138" s="2">
+        <v>229</v>
+      </c>
+      <c r="C138" s="2">
+        <v>40</v>
+      </c>
+      <c r="D138" s="2">
+        <v>68</v>
+      </c>
+      <c r="E138" s="2">
+        <v>122</v>
+      </c>
+      <c r="F138" s="2">
+        <v>126</v>
+      </c>
+      <c r="G138" s="2">
+        <v>111</v>
+      </c>
+      <c r="H138" s="2">
+        <v>554</v>
+      </c>
+      <c r="I138" s="2">
+        <v>39</v>
+      </c>
+      <c r="J138" s="2">
+        <v>355</v>
+      </c>
+      <c r="K138" s="2">
+        <v>209</v>
+      </c>
+      <c r="L138" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M138" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N138" s="2">
+        <v>168</v>
+      </c>
+      <c r="O138" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P138" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q138" s="117">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A139" s="36">
+        <v>44220</v>
+      </c>
+      <c r="B139" s="2">
+        <v>235</v>
+      </c>
+      <c r="C139" s="2">
+        <v>39</v>
+      </c>
+      <c r="D139" s="2">
+        <v>67</v>
+      </c>
+      <c r="E139" s="2">
+        <v>113</v>
+      </c>
+      <c r="F139" s="2">
+        <v>128</v>
+      </c>
+      <c r="G139" s="2">
+        <v>107</v>
+      </c>
+      <c r="H139" s="2">
+        <v>545</v>
+      </c>
+      <c r="I139" s="2">
+        <v>36</v>
+      </c>
+      <c r="J139" s="2">
+        <v>361</v>
+      </c>
+      <c r="K139" s="2">
+        <v>215</v>
+      </c>
+      <c r="L139" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M139" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N139" s="2">
+        <v>157</v>
+      </c>
+      <c r="O139" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P139" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q139" s="117">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140" s="36">
+        <v>44221</v>
+      </c>
+      <c r="B140" s="2">
+        <v>240</v>
+      </c>
+      <c r="C140" s="2">
+        <v>39</v>
+      </c>
+      <c r="D140" s="2">
+        <v>67</v>
+      </c>
+      <c r="E140" s="2">
+        <v>118</v>
+      </c>
+      <c r="F140" s="2">
+        <v>132</v>
+      </c>
+      <c r="G140" s="2">
+        <v>106</v>
+      </c>
+      <c r="H140" s="2">
+        <v>552</v>
+      </c>
+      <c r="I140" s="2">
+        <v>36</v>
+      </c>
+      <c r="J140" s="2">
+        <v>358</v>
+      </c>
+      <c r="K140" s="2">
+        <v>216</v>
+      </c>
+      <c r="L140" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M140" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N140" s="2">
+        <v>145</v>
+      </c>
+      <c r="O140" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P140" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q140" s="117">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A141" s="36">
+        <v>44222</v>
+      </c>
+      <c r="B141" s="2">
+        <v>228</v>
+      </c>
+      <c r="C141" s="2">
+        <v>38</v>
+      </c>
+      <c r="D141" s="2">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>121</v>
+      </c>
+      <c r="F141" s="2">
+        <v>132</v>
+      </c>
+      <c r="G141" s="2">
+        <v>105</v>
+      </c>
+      <c r="H141" s="2">
+        <v>557</v>
+      </c>
+      <c r="I141" s="2">
+        <v>42</v>
+      </c>
+      <c r="J141" s="2">
+        <v>356</v>
+      </c>
+      <c r="K141" s="2">
+        <v>225</v>
+      </c>
+      <c r="L141" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M141" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N141" s="2">
+        <v>135</v>
+      </c>
+      <c r="O141" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P141" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q141" s="117">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A142" s="36">
+        <v>44223</v>
+      </c>
+      <c r="B142" s="2">
+        <v>229</v>
+      </c>
+      <c r="C142" s="2">
+        <v>37</v>
+      </c>
+      <c r="D142" s="2">
+        <v>59</v>
+      </c>
+      <c r="E142" s="2">
+        <v>117</v>
+      </c>
+      <c r="F142" s="2">
+        <v>130</v>
+      </c>
+      <c r="G142" s="2">
+        <v>106</v>
+      </c>
+      <c r="H142" s="2">
+        <v>558</v>
+      </c>
+      <c r="I142" s="2">
+        <v>45</v>
+      </c>
+      <c r="J142" s="2">
+        <v>361</v>
+      </c>
+      <c r="K142" s="2">
+        <v>235</v>
+      </c>
+      <c r="L142" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M142" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N142" s="2">
+        <v>133</v>
+      </c>
+      <c r="O142" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P142" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q142" s="117">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A143" s="36">
+        <v>44224</v>
+      </c>
+      <c r="B143" s="2">
+        <v>226</v>
+      </c>
+      <c r="C143" s="2">
+        <v>31</v>
+      </c>
+      <c r="D143" s="2">
+        <v>56</v>
+      </c>
+      <c r="E143" s="2">
+        <v>115</v>
+      </c>
+      <c r="F143" s="2">
+        <v>140</v>
+      </c>
+      <c r="G143" s="2">
+        <v>105</v>
+      </c>
+      <c r="H143" s="2">
+        <v>561</v>
+      </c>
+      <c r="I143" s="2">
+        <v>43</v>
+      </c>
+      <c r="J143" s="2">
+        <v>355</v>
+      </c>
+      <c r="K143" s="2">
+        <v>223</v>
+      </c>
+      <c r="L143" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M143" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N143" s="2">
+        <v>121</v>
+      </c>
+      <c r="O143" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P143" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q143" s="117">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A144" s="36">
+        <v>44225</v>
+      </c>
+      <c r="B144" s="2">
+        <v>227</v>
+      </c>
+      <c r="C144" s="2">
+        <v>30</v>
+      </c>
+      <c r="D144" s="2">
+        <v>49</v>
+      </c>
+      <c r="E144" s="2">
+        <v>108</v>
+      </c>
+      <c r="F144" s="2">
+        <v>130</v>
+      </c>
+      <c r="G144" s="2">
+        <v>101</v>
+      </c>
+      <c r="H144" s="2">
+        <v>558</v>
+      </c>
+      <c r="I144" s="2">
+        <v>43</v>
+      </c>
+      <c r="J144" s="2">
+        <v>362</v>
+      </c>
+      <c r="K144" s="2">
+        <v>226</v>
+      </c>
+      <c r="L144" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M144" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N144" s="2">
+        <v>118</v>
+      </c>
+      <c r="O144" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P144" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q144" s="117">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A145" s="36">
+        <v>44226</v>
+      </c>
+      <c r="B145" s="141">
+        <v>227</v>
+      </c>
+      <c r="C145" s="141">
+        <v>31</v>
+      </c>
+      <c r="D145" s="141">
+        <v>58</v>
+      </c>
+      <c r="E145" s="141">
+        <v>100</v>
+      </c>
+      <c r="F145" s="141">
+        <v>131</v>
+      </c>
+      <c r="G145" s="141">
+        <v>90</v>
+      </c>
+      <c r="H145" s="141">
+        <v>559</v>
+      </c>
+      <c r="I145" s="142">
+        <v>38</v>
+      </c>
+      <c r="J145" s="141">
+        <v>350</v>
+      </c>
+      <c r="K145" s="143">
+        <v>245</v>
+      </c>
+      <c r="L145" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M145" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N145" s="141">
+        <v>115</v>
+      </c>
+      <c r="O145" s="99">
+        <v>5</v>
+      </c>
+      <c r="P145" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q145" s="117">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A146" s="36">
+        <v>44227</v>
+      </c>
+      <c r="B146" s="141">
+        <v>233</v>
+      </c>
+      <c r="C146" s="141">
+        <v>30</v>
+      </c>
+      <c r="D146" s="141">
+        <v>64</v>
+      </c>
+      <c r="E146" s="141">
+        <v>97</v>
+      </c>
+      <c r="F146" s="141">
+        <v>137</v>
+      </c>
+      <c r="G146" s="141">
+        <v>85</v>
+      </c>
+      <c r="H146" s="141">
+        <v>555</v>
+      </c>
+      <c r="I146" s="142">
+        <v>32</v>
+      </c>
+      <c r="J146" s="141">
+        <v>354</v>
+      </c>
+      <c r="K146" s="143">
+        <v>231</v>
+      </c>
+      <c r="L146" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M146" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N146" s="141">
+        <v>116</v>
+      </c>
+      <c r="O146" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P146" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q146" s="117">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A147" s="36">
+        <v>44228</v>
+      </c>
+      <c r="B147" s="2">
+        <v>243</v>
+      </c>
+      <c r="C147" s="2">
+        <v>31</v>
+      </c>
+      <c r="D147" s="2">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>97</v>
+      </c>
+      <c r="F147" s="2">
+        <v>136</v>
+      </c>
+      <c r="G147" s="2">
+        <v>86</v>
+      </c>
+      <c r="H147" s="2">
+        <v>542</v>
+      </c>
+      <c r="I147" s="2">
+        <v>33</v>
+      </c>
+      <c r="J147" s="2">
+        <v>354</v>
+      </c>
+      <c r="K147" s="2">
+        <v>243</v>
+      </c>
+      <c r="L147" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M147" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N147" s="2">
+        <v>121</v>
+      </c>
+      <c r="O147" s="99">
+        <v>5</v>
+      </c>
+      <c r="P147" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q147" s="117">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A148" s="36">
+        <v>44229</v>
+      </c>
+      <c r="B148" s="2">
+        <v>230</v>
+      </c>
+      <c r="C148" s="2">
+        <v>30</v>
+      </c>
+      <c r="D148" s="2">
+        <v>61</v>
+      </c>
+      <c r="E148" s="2">
+        <v>101</v>
+      </c>
+      <c r="F148" s="2">
+        <v>142</v>
+      </c>
+      <c r="G148" s="2">
+        <v>89</v>
+      </c>
+      <c r="H148" s="2">
+        <v>538</v>
+      </c>
+      <c r="I148" s="2">
+        <v>33</v>
+      </c>
+      <c r="J148" s="2">
+        <v>348</v>
+      </c>
+      <c r="K148" s="2">
+        <v>238</v>
+      </c>
+      <c r="L148" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M148" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N148" s="2">
+        <v>114</v>
+      </c>
+      <c r="O148" s="2">
+        <v>7</v>
+      </c>
+      <c r="P148" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q148" s="117">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A149" s="36">
+        <v>44230</v>
+      </c>
+      <c r="B149" s="2">
+        <v>229</v>
+      </c>
+      <c r="C149" s="2">
+        <v>25</v>
+      </c>
+      <c r="D149" s="2">
+        <v>58</v>
+      </c>
+      <c r="E149" s="2">
+        <v>94</v>
+      </c>
+      <c r="F149" s="2">
+        <v>142</v>
+      </c>
+      <c r="G149" s="2">
+        <v>79</v>
+      </c>
+      <c r="H149" s="2">
+        <v>516</v>
+      </c>
+      <c r="I149" s="2">
+        <v>37</v>
+      </c>
+      <c r="J149" s="2">
+        <v>334</v>
+      </c>
+      <c r="K149" s="2">
+        <v>232</v>
+      </c>
+      <c r="L149" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M149" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N149" s="2">
+        <v>110</v>
+      </c>
+      <c r="O149" s="2">
+        <v>7</v>
+      </c>
+      <c r="P149" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q149" s="117">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A150" s="36">
+        <v>44231</v>
+      </c>
+      <c r="B150" s="2">
+        <v>221</v>
+      </c>
+      <c r="C150" s="2">
+        <v>22</v>
+      </c>
+      <c r="D150" s="2">
+        <v>54</v>
+      </c>
+      <c r="E150" s="2">
+        <v>98</v>
+      </c>
+      <c r="F150" s="2">
+        <v>150</v>
+      </c>
+      <c r="G150" s="2">
+        <v>72</v>
+      </c>
+      <c r="H150" s="2">
+        <v>500</v>
+      </c>
+      <c r="I150" s="2">
+        <v>34</v>
+      </c>
+      <c r="J150" s="2">
+        <v>317</v>
+      </c>
+      <c r="K150" s="2">
+        <v>233</v>
+      </c>
+      <c r="L150" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M150" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N150" s="2">
+        <v>103</v>
+      </c>
+      <c r="O150" s="2">
+        <v>8</v>
+      </c>
+      <c r="P150" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q150" s="117">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A151" s="36">
+        <v>44232</v>
+      </c>
+      <c r="B151" s="2">
+        <v>209</v>
+      </c>
+      <c r="C151" s="2">
+        <v>19</v>
+      </c>
+      <c r="D151" s="2">
+        <v>51</v>
+      </c>
+      <c r="E151" s="2">
+        <v>91</v>
+      </c>
+      <c r="F151" s="2">
+        <v>147</v>
+      </c>
+      <c r="G151" s="2">
+        <v>70</v>
+      </c>
+      <c r="H151" s="2">
+        <v>504</v>
+      </c>
+      <c r="I151" s="2">
+        <v>33</v>
+      </c>
+      <c r="J151" s="2">
+        <v>327</v>
+      </c>
+      <c r="K151" s="2">
+        <v>235</v>
+      </c>
+      <c r="L151" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M151" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N151" s="2">
+        <v>98</v>
+      </c>
+      <c r="O151" s="2">
+        <v>8</v>
+      </c>
+      <c r="P151" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q151" s="117">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A152" s="36">
+        <v>44233</v>
+      </c>
+      <c r="B152" s="2">
+        <v>197</v>
+      </c>
+      <c r="C152" s="2">
+        <v>18</v>
+      </c>
+      <c r="D152" s="2">
+        <v>44</v>
+      </c>
+      <c r="E152" s="2">
+        <v>90</v>
+      </c>
+      <c r="F152" s="2">
+        <v>156</v>
+      </c>
+      <c r="G152" s="2">
+        <v>71</v>
+      </c>
+      <c r="H152" s="2">
+        <v>489</v>
+      </c>
+      <c r="I152" s="2">
+        <v>32</v>
+      </c>
+      <c r="J152" s="2">
+        <v>301</v>
+      </c>
+      <c r="K152" s="2">
+        <v>228</v>
+      </c>
+      <c r="L152" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M152" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N152" s="2">
+        <v>91</v>
+      </c>
+      <c r="O152" s="2">
+        <v>9</v>
+      </c>
+      <c r="P152" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q152" s="118">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A153" s="36">
+        <v>44234</v>
+      </c>
+      <c r="B153" s="2">
+        <v>202</v>
+      </c>
+      <c r="C153" s="2">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2">
+        <v>44</v>
+      </c>
+      <c r="E153" s="2">
+        <v>90</v>
+      </c>
+      <c r="F153" s="2">
+        <v>159</v>
+      </c>
+      <c r="G153" s="2">
+        <v>66</v>
+      </c>
+      <c r="H153" s="2">
+        <v>487</v>
+      </c>
+      <c r="I153" s="2">
+        <v>31</v>
+      </c>
+      <c r="J153" s="2">
+        <v>290</v>
+      </c>
+      <c r="K153" s="2">
+        <v>219</v>
+      </c>
+      <c r="L153" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M153" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N153" s="2">
+        <v>92</v>
+      </c>
+      <c r="O153" s="2">
+        <v>10</v>
+      </c>
+      <c r="P153" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q153" s="118">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A154" s="36">
+        <v>44235</v>
+      </c>
+      <c r="B154" s="2">
+        <v>200</v>
+      </c>
+      <c r="C154" s="2">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2">
+        <v>42</v>
+      </c>
+      <c r="E154" s="2">
+        <v>90</v>
+      </c>
+      <c r="F154" s="2">
+        <v>155</v>
+      </c>
+      <c r="G154" s="2">
+        <v>66</v>
+      </c>
+      <c r="H154" s="2">
+        <v>476</v>
+      </c>
+      <c r="I154" s="2">
+        <v>31</v>
+      </c>
+      <c r="J154" s="2">
+        <v>279</v>
+      </c>
+      <c r="K154" s="2">
+        <v>211</v>
+      </c>
+      <c r="L154" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M154" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N154" s="2">
+        <v>94</v>
+      </c>
+      <c r="O154" s="2">
+        <v>10</v>
+      </c>
+      <c r="P154" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q154" s="118">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A155" s="36">
+        <v>44236</v>
+      </c>
+      <c r="B155" s="2">
+        <v>194</v>
+      </c>
+      <c r="C155" s="2">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2">
+        <v>35</v>
+      </c>
+      <c r="E155" s="2">
+        <v>86</v>
+      </c>
+      <c r="F155" s="2">
+        <v>154</v>
+      </c>
+      <c r="G155" s="2">
+        <v>66</v>
+      </c>
+      <c r="H155" s="2">
+        <v>453</v>
+      </c>
+      <c r="I155" s="2">
+        <v>32</v>
+      </c>
+      <c r="J155" s="2">
+        <v>260</v>
+      </c>
+      <c r="K155" s="2">
+        <v>221</v>
+      </c>
+      <c r="L155" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M155" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N155" s="2">
+        <v>88</v>
+      </c>
+      <c r="O155" s="2">
+        <v>10</v>
+      </c>
+      <c r="P155" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q155" s="118">
+        <v>1618</v>
       </c>
     </row>
   </sheetData>
@@ -36538,7 +41969,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -36549,7 +41980,7 @@
       <c r="H1" s="53"/>
       <c r="I1" s="53"/>
       <c r="S1" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T1" s="41"/>
       <c r="U1" s="41"/>
@@ -36569,14 +42000,14 @@
       <c r="AI1" s="41"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
       <c r="S2" s="42" t="s">
         <v>26</v>
       </c>
@@ -52624,7 +58055,7 @@
   <dimension ref="A1:AK177"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight"/>
@@ -52641,7 +58072,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -52660,7 +58091,7 @@
       <c r="P1" s="41"/>
       <c r="Q1" s="41"/>
       <c r="S1" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T1" s="53"/>
       <c r="U1" s="53"/>
@@ -68084,7 +73515,7 @@
       <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2021-01-09T10:37:17Z</value>
+      <value order="0">2021-02-09T13:09:55Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -68099,13 +73530,13 @@
       <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA45918925</value>
+      <value order="0">vA46622955</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">69.71</value>
+      <value order="0">69.156</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">532</value>
+      <value order="0">617</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
